--- a/ClimbDocs/climb-balance-2020.xlsx
+++ b/ClimbDocs/climb-balance-2020.xlsx
@@ -18,6 +18,53 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>R1 Weight</t>
+  </si>
+  <si>
+    <t>R1 Pos</t>
+  </si>
+  <si>
+    <t>R2 Weight</t>
+  </si>
+  <si>
+    <t>R2 Pos</t>
+  </si>
+  <si>
+    <t>R3 Weight</t>
+  </si>
+  <si>
+    <t>R3 Pos</t>
+  </si>
+  <si>
+    <t>Bar Mass</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>One R</t>
+  </si>
+  <si>
+    <t>Two R</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>195L</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>Error (+/-)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
@@ -29,12 +76,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,13 +114,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -331,12 +408,6100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>150</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>100</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>93</v>
+      </c>
+      <c r="H2" s="3">
+        <v>2.17</v>
+      </c>
+      <c r="I2" s="4">
+        <f>A2*B2</f>
+        <v>300</v>
+      </c>
+      <c r="J2" s="4">
+        <f>C2*D2+E2*F2</f>
+        <v>200</v>
+      </c>
+      <c r="K2" s="4">
+        <f>I2-J2</f>
+        <v>100</v>
+      </c>
+      <c r="L2" s="4">
+        <f>DEGREES(ATAN((A2*B2-C2*D2-E2*F2)/(H2*(A2+C2+E2+G2))))</f>
+        <v>7.6520165171643892</v>
+      </c>
+      <c r="M2" s="4">
+        <f>(C2*D2+E2*F2)/A2</f>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>150</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>50</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>93</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I3" s="4">
+        <f t="shared" ref="I3:I66" si="0">A3*B3</f>
+        <v>525</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J66" si="1">C3*D3+E3*F3</f>
+        <v>250</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K66" si="2">I3-J3</f>
+        <v>275</v>
+      </c>
+      <c r="L3" s="4">
+        <f t="shared" ref="L3:L66" si="3">DEGREES(ATAN((A3*B3-C3*D3-E3*F3)/(H3*(A3+C3+E3+G3))))</f>
+        <v>20.277744349710314</v>
+      </c>
+      <c r="M3" s="4">
+        <f t="shared" ref="M3:M66" si="4">(C3*D3+E3*F3)/A3</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N66" si="5">DEGREES(ATAN((A3*(M3+$O$1)-C3*D3-E3*F3)/(H3*(A3+C3+E3+G3))))</f>
+        <v>8.0297437274815753</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>150</v>
+      </c>
+      <c r="B4" s="4">
+        <f>$B$3</f>
+        <v>3.5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>75</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>50</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>93</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="1"/>
+        <v>362.5</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="2"/>
+        <v>162.5</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" si="3"/>
+        <v>11.502144870269609</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" si="4"/>
+        <v>2.4166666666666665</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="5"/>
+        <v>7.4906607907800984</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>150</v>
+      </c>
+      <c r="B5" s="4">
+        <f t="shared" ref="B5:B68" si="6">$B$3</f>
+        <v>3.5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>100</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>93</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="1"/>
+        <v>475</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="3"/>
+        <v>3.3553935969014286</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="4"/>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="5"/>
+        <v>7.019067562474091</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>150</v>
+      </c>
+      <c r="B6" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>125</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>93</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="1"/>
+        <v>587.5</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="2"/>
+        <v>-62.5</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="3"/>
+        <v>-3.9416743078951328</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" si="4"/>
+        <v>3.9166666666666665</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="5"/>
+        <v>6.6030902284829098</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>150</v>
+      </c>
+      <c r="B7" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>150</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>93</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="1"/>
+        <v>700</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="2"/>
+        <v>-175</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" si="3"/>
+        <v>-10.317328969247406</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" si="4"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>6.2334753483213428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>150</v>
+      </c>
+      <c r="B8" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>50</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>50</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>93</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="3"/>
+        <v>21.952286940908817</v>
+      </c>
+      <c r="M8" s="4">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>150</v>
+      </c>
+      <c r="B9" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>75</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2">
+        <v>50</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>93</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="1"/>
+        <v>325</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="3"/>
+        <v>14.060551094243079</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" si="4"/>
+        <v>2.1666666666666665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>150</v>
+      </c>
+      <c r="B10" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>100</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>93</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="1"/>
+        <v>425</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="3"/>
+        <v>6.6879285682641081</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" si="4"/>
+        <v>2.8333333333333335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>150</v>
+      </c>
+      <c r="B11" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>125</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2">
+        <v>50</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="2">
+        <v>93</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="1"/>
+        <v>525</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>150</v>
+      </c>
+      <c r="B12" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>150</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2">
+        <v>50</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="2">
+        <v>93</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="1"/>
+        <v>625</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="3"/>
+        <v>-5.938817080968751</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="4"/>
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>150</v>
+      </c>
+      <c r="B13" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>50</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="E13" s="2">
+        <v>50</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="2">
+        <v>93</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="2"/>
+        <v>325</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="3"/>
+        <v>23.588296257091383</v>
+      </c>
+      <c r="M13" s="4">
+        <f t="shared" si="4"/>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>150</v>
+      </c>
+      <c r="B14" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>75</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>50</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="2">
+        <v>93</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="1"/>
+        <v>287.5</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="2"/>
+        <v>237.5</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="3"/>
+        <v>16.56302201445456</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="4"/>
+        <v>1.9166666666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>150</v>
+      </c>
+      <c r="B15" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>100</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="E15" s="2">
+        <v>50</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="2">
+        <v>93</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="1"/>
+        <v>375</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="3"/>
+        <v>9.97566706381639</v>
+      </c>
+      <c r="M15" s="4">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>150</v>
+      </c>
+      <c r="B16" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C16" s="2">
+        <v>125</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="E16" s="2">
+        <v>50</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="2">
+        <v>93</v>
+      </c>
+      <c r="H16" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="1"/>
+        <v>462.5</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" si="2"/>
+        <v>62.5</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="3"/>
+        <v>3.9416743078951328</v>
+      </c>
+      <c r="M16" s="4">
+        <f t="shared" si="4"/>
+        <v>3.0833333333333335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>150</v>
+      </c>
+      <c r="B17" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C17" s="2">
+        <v>150</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="E17" s="2">
+        <v>50</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="2">
+        <v>93</v>
+      </c>
+      <c r="H17" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="2"/>
+        <v>-25</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.4897085218550541</v>
+      </c>
+      <c r="M17" s="4">
+        <f t="shared" si="4"/>
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>150</v>
+      </c>
+      <c r="B18" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>50</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>50</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="2">
+        <v>93</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" si="3"/>
+        <v>25.184513239714509</v>
+      </c>
+      <c r="M18" s="4">
+        <f t="shared" si="4"/>
+        <v>1.1666666666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>150</v>
+      </c>
+      <c r="B19" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>75</v>
+      </c>
+      <c r="D19" s="2">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2">
+        <v>50</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="2">
+        <v>93</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="2"/>
+        <v>275</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="3"/>
+        <v>19.00216425885462</v>
+      </c>
+      <c r="M19" s="4">
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>150</v>
+      </c>
+      <c r="B20" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C20" s="2">
+        <v>100</v>
+      </c>
+      <c r="D20" s="2">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2">
+        <v>50</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="2">
+        <v>93</v>
+      </c>
+      <c r="H20" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="1"/>
+        <v>325</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="3"/>
+        <v>13.198421985499571</v>
+      </c>
+      <c r="M20" s="4">
+        <f t="shared" si="4"/>
+        <v>2.1666666666666665</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>150</v>
+      </c>
+      <c r="B21" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C21" s="2">
+        <v>125</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2">
+        <v>50</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="2">
+        <v>93</v>
+      </c>
+      <c r="H21" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="K21" s="4">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="3"/>
+        <v>7.8463877237141402</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" si="4"/>
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>150</v>
+      </c>
+      <c r="B22" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C22" s="2">
+        <v>150</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2">
+        <v>50</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="2">
+        <v>93</v>
+      </c>
+      <c r="H22" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="1"/>
+        <v>475</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="3"/>
+        <v>2.9774056272558349</v>
+      </c>
+      <c r="M22" s="4">
+        <f t="shared" si="4"/>
+        <v>3.1666666666666665</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>150</v>
+      </c>
+      <c r="B23" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C23" s="2">
+        <v>50</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E23" s="2">
+        <v>50</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="2">
+        <v>93</v>
+      </c>
+      <c r="H23" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="K23" s="4">
+        <f t="shared" si="2"/>
+        <v>375</v>
+      </c>
+      <c r="L23" s="4">
+        <f t="shared" si="3"/>
+        <v>26.739985966575009</v>
+      </c>
+      <c r="M23" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>150</v>
+      </c>
+      <c r="B24" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C24" s="2">
+        <v>75</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E24" s="2">
+        <v>50</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="2">
+        <v>93</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="1"/>
+        <v>212.5</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="2"/>
+        <v>312.5</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="3"/>
+        <v>21.371866690028394</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="4"/>
+        <v>1.4166666666666667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>150</v>
+      </c>
+      <c r="B25" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C25" s="2">
+        <v>100</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E25" s="2">
+        <v>50</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="2">
+        <v>93</v>
+      </c>
+      <c r="H25" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I25" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+      <c r="K25" s="4">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" si="3"/>
+        <v>16.338421636685045</v>
+      </c>
+      <c r="M25" s="4">
+        <f t="shared" si="4"/>
+        <v>1.8333333333333333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>150</v>
+      </c>
+      <c r="B26" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C26" s="2">
+        <v>125</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E26" s="2">
+        <v>50</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="2">
+        <v>93</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I26" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="1"/>
+        <v>337.5</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="2"/>
+        <v>187.5</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="3"/>
+        <v>11.679217512116109</v>
+      </c>
+      <c r="M26" s="4">
+        <f t="shared" si="4"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>150</v>
+      </c>
+      <c r="B27" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C27" s="2">
+        <v>150</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E27" s="2">
+        <v>50</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G27" s="2">
+        <v>93</v>
+      </c>
+      <c r="H27" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I27" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J27" s="4">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" si="3"/>
+        <v>7.4086528755092393</v>
+      </c>
+      <c r="M27" s="4">
+        <f t="shared" si="4"/>
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>150</v>
+      </c>
+      <c r="B28" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C28" s="1">
+        <v>50</v>
+      </c>
+      <c r="D28" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>75</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G28" s="1">
+        <v>93</v>
+      </c>
+      <c r="H28" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I28" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="1"/>
+        <v>262.5</v>
+      </c>
+      <c r="K28" s="4">
+        <f t="shared" si="2"/>
+        <v>262.5</v>
+      </c>
+      <c r="L28" s="4">
+        <f t="shared" si="3"/>
+        <v>18.196557267542094</v>
+      </c>
+      <c r="M28" s="4">
+        <f t="shared" si="4"/>
+        <v>1.75</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="5"/>
+        <v>7.4906607907801037</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>150</v>
+      </c>
+      <c r="B29" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C29" s="1">
+        <v>75</v>
+      </c>
+      <c r="D29" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E29" s="1">
+        <v>75</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G29" s="1">
+        <v>93</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I29" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J29" s="4">
+        <f t="shared" si="1"/>
+        <v>375</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="L29" s="4">
+        <f t="shared" si="3"/>
+        <v>9.97566706381639</v>
+      </c>
+      <c r="M29" s="4">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="5"/>
+        <v>7.0190675624740981</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>150</v>
+      </c>
+      <c r="B30" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C30" s="1">
+        <v>100</v>
+      </c>
+      <c r="D30" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E30" s="1">
+        <v>75</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G30" s="1">
+        <v>93</v>
+      </c>
+      <c r="H30" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I30" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J30" s="4">
+        <f t="shared" si="1"/>
+        <v>487.5</v>
+      </c>
+      <c r="K30" s="4">
+        <f t="shared" si="2"/>
+        <v>37.5</v>
+      </c>
+      <c r="L30" s="4">
+        <f t="shared" si="3"/>
+        <v>2.3673945140775086</v>
+      </c>
+      <c r="M30" s="4">
+        <f t="shared" si="4"/>
+        <v>3.25</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="5"/>
+        <v>6.6030902284829169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>150</v>
+      </c>
+      <c r="B31" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C31" s="1">
+        <v>125</v>
+      </c>
+      <c r="D31" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E31" s="1">
+        <v>75</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G31" s="1">
+        <v>93</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I31" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J31" s="4">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="K31" s="4">
+        <f t="shared" si="2"/>
+        <v>-75</v>
+      </c>
+      <c r="L31" s="4">
+        <f t="shared" si="3"/>
+        <v>-4.4610961472149535</v>
+      </c>
+      <c r="M31" s="4">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="5"/>
+        <v>6.2334753483213357</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>150</v>
+      </c>
+      <c r="B32" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C32" s="1">
+        <v>150</v>
+      </c>
+      <c r="D32" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E32" s="1">
+        <v>75</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G32" s="1">
+        <v>93</v>
+      </c>
+      <c r="H32" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I32" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J32" s="4">
+        <f t="shared" si="1"/>
+        <v>712.5</v>
+      </c>
+      <c r="K32" s="4">
+        <f t="shared" si="2"/>
+        <v>-187.5</v>
+      </c>
+      <c r="L32" s="4">
+        <f t="shared" si="3"/>
+        <v>-10.460563792481413</v>
+      </c>
+      <c r="M32" s="4">
+        <f t="shared" si="4"/>
+        <v>4.75</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="5"/>
+        <v>5.9029073526545588</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>150</v>
+      </c>
+      <c r="B33" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C33" s="1">
+        <v>50</v>
+      </c>
+      <c r="D33" s="1">
+        <v>4</v>
+      </c>
+      <c r="E33" s="1">
+        <v>75</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G33" s="1">
+        <v>93</v>
+      </c>
+      <c r="H33" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I33" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J33" s="4">
+        <f t="shared" si="1"/>
+        <v>237.5</v>
+      </c>
+      <c r="K33" s="4">
+        <f t="shared" si="2"/>
+        <v>287.5</v>
+      </c>
+      <c r="L33" s="4">
+        <f t="shared" si="3"/>
+        <v>19.800045059869248</v>
+      </c>
+      <c r="M33" s="4">
+        <f t="shared" si="4"/>
+        <v>1.5833333333333333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>150</v>
+      </c>
+      <c r="B34" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C34" s="1">
+        <v>75</v>
+      </c>
+      <c r="D34" s="1">
+        <v>4</v>
+      </c>
+      <c r="E34" s="1">
+        <v>75</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G34" s="1">
+        <v>93</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I34" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J34" s="4">
+        <f t="shared" si="1"/>
+        <v>337.5</v>
+      </c>
+      <c r="K34" s="4">
+        <f t="shared" si="2"/>
+        <v>187.5</v>
+      </c>
+      <c r="L34" s="4">
+        <f t="shared" si="3"/>
+        <v>12.399843687793796</v>
+      </c>
+      <c r="M34" s="4">
+        <f t="shared" si="4"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>150</v>
+      </c>
+      <c r="B35" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C35" s="1">
+        <v>100</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4</v>
+      </c>
+      <c r="E35" s="1">
+        <v>75</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G35" s="1">
+        <v>93</v>
+      </c>
+      <c r="H35" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I35" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J35" s="4">
+        <f t="shared" si="1"/>
+        <v>437.5</v>
+      </c>
+      <c r="K35" s="4">
+        <f t="shared" si="2"/>
+        <v>87.5</v>
+      </c>
+      <c r="L35" s="4">
+        <f t="shared" si="3"/>
+        <v>5.5100171241949178</v>
+      </c>
+      <c r="M35" s="4">
+        <f t="shared" si="4"/>
+        <v>2.9166666666666665</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>150</v>
+      </c>
+      <c r="B36" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C36" s="1">
+        <v>125</v>
+      </c>
+      <c r="D36" s="1">
+        <v>4</v>
+      </c>
+      <c r="E36" s="1">
+        <v>75</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G36" s="1">
+        <v>93</v>
+      </c>
+      <c r="H36" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I36" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J36" s="4">
+        <f t="shared" si="1"/>
+        <v>537.5</v>
+      </c>
+      <c r="K36" s="4">
+        <f t="shared" si="2"/>
+        <v>-12.5</v>
+      </c>
+      <c r="L36" s="4">
+        <f t="shared" si="3"/>
+        <v>-0.74498016566015568</v>
+      </c>
+      <c r="M36" s="4">
+        <f t="shared" si="4"/>
+        <v>3.5833333333333335</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>150</v>
+      </c>
+      <c r="B37" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C37" s="1">
+        <v>150</v>
+      </c>
+      <c r="D37" s="1">
+        <v>4</v>
+      </c>
+      <c r="E37" s="1">
+        <v>75</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G37" s="1">
+        <v>93</v>
+      </c>
+      <c r="H37" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I37" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J37" s="4">
+        <f t="shared" si="1"/>
+        <v>637.5</v>
+      </c>
+      <c r="K37" s="4">
+        <f t="shared" si="2"/>
+        <v>-112.5</v>
+      </c>
+      <c r="L37" s="4">
+        <f t="shared" si="3"/>
+        <v>-6.3212428865785339</v>
+      </c>
+      <c r="M37" s="4">
+        <f t="shared" si="4"/>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>150</v>
+      </c>
+      <c r="B38" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C38" s="1">
+        <v>50</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E38" s="1">
+        <v>75</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G38" s="1">
+        <v>93</v>
+      </c>
+      <c r="H38" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I38" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J38" s="4">
+        <f t="shared" si="1"/>
+        <v>212.5</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" si="2"/>
+        <v>312.5</v>
+      </c>
+      <c r="L38" s="4">
+        <f t="shared" si="3"/>
+        <v>21.371866690028394</v>
+      </c>
+      <c r="M38" s="4">
+        <f t="shared" si="4"/>
+        <v>1.4166666666666667</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>150</v>
+      </c>
+      <c r="B39" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C39" s="1">
+        <v>75</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E39" s="1">
+        <v>75</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G39" s="1">
+        <v>93</v>
+      </c>
+      <c r="H39" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I39" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J39" s="4">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="K39" s="4">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="L39" s="4">
+        <f t="shared" si="3"/>
+        <v>14.779768664141997</v>
+      </c>
+      <c r="M39" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>150</v>
+      </c>
+      <c r="B40" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C40" s="1">
+        <v>100</v>
+      </c>
+      <c r="D40" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E40" s="1">
+        <v>75</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G40" s="1">
+        <v>93</v>
+      </c>
+      <c r="H40" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I40" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J40" s="4">
+        <f t="shared" si="1"/>
+        <v>387.5</v>
+      </c>
+      <c r="K40" s="4">
+        <f t="shared" si="2"/>
+        <v>137.5</v>
+      </c>
+      <c r="L40" s="4">
+        <f t="shared" si="3"/>
+        <v>8.6197647334380605</v>
+      </c>
+      <c r="M40" s="4">
+        <f t="shared" si="4"/>
+        <v>2.5833333333333335</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>150</v>
+      </c>
+      <c r="B41" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C41" s="1">
+        <v>125</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E41" s="1">
+        <v>75</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="1">
+        <v>93</v>
+      </c>
+      <c r="H41" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I41" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J41" s="4">
+        <f t="shared" si="1"/>
+        <v>475</v>
+      </c>
+      <c r="K41" s="4">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="L41" s="4">
+        <f t="shared" si="3"/>
+        <v>2.9774056272558349</v>
+      </c>
+      <c r="M41" s="4">
+        <f t="shared" si="4"/>
+        <v>3.1666666666666665</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>150</v>
+      </c>
+      <c r="B42" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C42" s="1">
+        <v>150</v>
+      </c>
+      <c r="D42" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E42" s="1">
+        <v>75</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G42" s="1">
+        <v>93</v>
+      </c>
+      <c r="H42" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I42" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J42" s="4">
+        <f t="shared" si="1"/>
+        <v>562.5</v>
+      </c>
+      <c r="K42" s="4">
+        <f t="shared" si="2"/>
+        <v>-37.5</v>
+      </c>
+      <c r="L42" s="4">
+        <f t="shared" si="3"/>
+        <v>-2.1147110987155942</v>
+      </c>
+      <c r="M42" s="4">
+        <f t="shared" si="4"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>150</v>
+      </c>
+      <c r="B43" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C43" s="1">
+        <v>50</v>
+      </c>
+      <c r="D43" s="1">
+        <v>3</v>
+      </c>
+      <c r="E43" s="1">
+        <v>75</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G43" s="1">
+        <v>93</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I43" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J43" s="4">
+        <f t="shared" si="1"/>
+        <v>187.5</v>
+      </c>
+      <c r="K43" s="4">
+        <f t="shared" si="2"/>
+        <v>337.5</v>
+      </c>
+      <c r="L43" s="4">
+        <f t="shared" si="3"/>
+        <v>22.910657004321976</v>
+      </c>
+      <c r="M43" s="4">
+        <f t="shared" si="4"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>150</v>
+      </c>
+      <c r="B44" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C44" s="1">
+        <v>75</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3</v>
+      </c>
+      <c r="E44" s="1">
+        <v>75</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G44" s="1">
+        <v>93</v>
+      </c>
+      <c r="H44" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I44" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J44" s="4">
+        <f t="shared" si="1"/>
+        <v>262.5</v>
+      </c>
+      <c r="K44" s="4">
+        <f t="shared" si="2"/>
+        <v>262.5</v>
+      </c>
+      <c r="L44" s="4">
+        <f t="shared" si="3"/>
+        <v>17.108677348195926</v>
+      </c>
+      <c r="M44" s="4">
+        <f t="shared" si="4"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>150</v>
+      </c>
+      <c r="B45" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C45" s="1">
+        <v>100</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3</v>
+      </c>
+      <c r="E45" s="1">
+        <v>75</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G45" s="1">
+        <v>93</v>
+      </c>
+      <c r="H45" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I45" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J45" s="4">
+        <f t="shared" si="1"/>
+        <v>337.5</v>
+      </c>
+      <c r="K45" s="4">
+        <f t="shared" si="2"/>
+        <v>187.5</v>
+      </c>
+      <c r="L45" s="4">
+        <f t="shared" si="3"/>
+        <v>11.679217512116109</v>
+      </c>
+      <c r="M45" s="4">
+        <f t="shared" si="4"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>150</v>
+      </c>
+      <c r="B46" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C46" s="1">
+        <v>125</v>
+      </c>
+      <c r="D46" s="1">
+        <v>3</v>
+      </c>
+      <c r="E46" s="1">
+        <v>75</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G46" s="1">
+        <v>93</v>
+      </c>
+      <c r="H46" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I46" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J46" s="4">
+        <f t="shared" si="1"/>
+        <v>412.5</v>
+      </c>
+      <c r="K46" s="4">
+        <f t="shared" si="2"/>
+        <v>112.5</v>
+      </c>
+      <c r="L46" s="4">
+        <f t="shared" si="3"/>
+        <v>6.6748380894071477</v>
+      </c>
+      <c r="M46" s="4">
+        <f t="shared" si="4"/>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>150</v>
+      </c>
+      <c r="B47" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C47" s="1">
+        <v>150</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3</v>
+      </c>
+      <c r="E47" s="1">
+        <v>75</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G47" s="1">
+        <v>93</v>
+      </c>
+      <c r="H47" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I47" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J47" s="4">
+        <f t="shared" si="1"/>
+        <v>487.5</v>
+      </c>
+      <c r="K47" s="4">
+        <f t="shared" si="2"/>
+        <v>37.5</v>
+      </c>
+      <c r="L47" s="4">
+        <f t="shared" si="3"/>
+        <v>2.1147110987155942</v>
+      </c>
+      <c r="M47" s="4">
+        <f t="shared" si="4"/>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>150</v>
+      </c>
+      <c r="B48" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C48" s="1">
+        <v>50</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E48" s="1">
+        <v>75</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G48" s="1">
+        <v>93</v>
+      </c>
+      <c r="H48" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I48" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J48" s="4">
+        <f t="shared" si="1"/>
+        <v>162.5</v>
+      </c>
+      <c r="K48" s="4">
+        <f t="shared" si="2"/>
+        <v>362.5</v>
+      </c>
+      <c r="L48" s="4">
+        <f t="shared" si="3"/>
+        <v>24.415297863416487</v>
+      </c>
+      <c r="M48" s="4">
+        <f t="shared" si="4"/>
+        <v>1.0833333333333333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>150</v>
+      </c>
+      <c r="B49" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C49" s="1">
+        <v>75</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E49" s="1">
+        <v>75</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G49" s="1">
+        <v>93</v>
+      </c>
+      <c r="H49" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I49" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J49" s="4">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="K49" s="4">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="L49" s="4">
+        <f t="shared" si="3"/>
+        <v>19.380762516811583</v>
+      </c>
+      <c r="M49" s="4">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>150</v>
+      </c>
+      <c r="B50" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C50" s="1">
+        <v>100</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E50" s="1">
+        <v>75</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G50" s="1">
+        <v>93</v>
+      </c>
+      <c r="H50" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I50" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J50" s="4">
+        <f t="shared" si="1"/>
+        <v>287.5</v>
+      </c>
+      <c r="K50" s="4">
+        <f t="shared" si="2"/>
+        <v>237.5</v>
+      </c>
+      <c r="L50" s="4">
+        <f t="shared" si="3"/>
+        <v>14.672649328994595</v>
+      </c>
+      <c r="M50" s="4">
+        <f t="shared" si="4"/>
+        <v>1.9166666666666667</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>150</v>
+      </c>
+      <c r="B51" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C51" s="1">
+        <v>125</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E51" s="1">
+        <v>75</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G51" s="1">
+        <v>93</v>
+      </c>
+      <c r="H51" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I51" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J51" s="4">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="K51" s="4">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="L51" s="4">
+        <f t="shared" si="3"/>
+        <v>10.317328969247406</v>
+      </c>
+      <c r="M51" s="4">
+        <f t="shared" si="4"/>
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>150</v>
+      </c>
+      <c r="B52" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C52" s="1">
+        <v>150</v>
+      </c>
+      <c r="D52" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E52" s="1">
+        <v>75</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G52" s="1">
+        <v>93</v>
+      </c>
+      <c r="H52" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I52" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J52" s="4">
+        <f t="shared" si="1"/>
+        <v>412.5</v>
+      </c>
+      <c r="K52" s="4">
+        <f t="shared" si="2"/>
+        <v>112.5</v>
+      </c>
+      <c r="L52" s="4">
+        <f t="shared" si="3"/>
+        <v>6.3212428865785339</v>
+      </c>
+      <c r="M52" s="4">
+        <f t="shared" si="4"/>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>150</v>
+      </c>
+      <c r="B53" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C53" s="2">
+        <v>50</v>
+      </c>
+      <c r="D53" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="E53" s="2">
+        <v>100</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G53" s="2">
+        <v>93</v>
+      </c>
+      <c r="H53" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I53" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J53" s="4">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+      <c r="K53" s="4">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="L53" s="4">
+        <f t="shared" si="3"/>
+        <v>16.338421636685045</v>
+      </c>
+      <c r="M53" s="4">
+        <f t="shared" si="4"/>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="5"/>
+        <v>7.0190675624740981</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>150</v>
+      </c>
+      <c r="B54" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C54" s="2">
+        <v>75</v>
+      </c>
+      <c r="D54" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="E54" s="2">
+        <v>100</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G54" s="2">
+        <v>93</v>
+      </c>
+      <c r="H54" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I54" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J54" s="4">
+        <f t="shared" si="1"/>
+        <v>387.5</v>
+      </c>
+      <c r="K54" s="4">
+        <f t="shared" si="2"/>
+        <v>137.5</v>
+      </c>
+      <c r="L54" s="4">
+        <f t="shared" si="3"/>
+        <v>8.6197647334380605</v>
+      </c>
+      <c r="M54" s="4">
+        <f t="shared" si="4"/>
+        <v>2.5833333333333335</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="5"/>
+        <v>6.6030902284829169</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>150</v>
+      </c>
+      <c r="B55" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C55" s="2">
+        <v>100</v>
+      </c>
+      <c r="D55" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="E55" s="2">
+        <v>100</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G55" s="2">
+        <v>93</v>
+      </c>
+      <c r="H55" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I55" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J55" s="4">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="K55" s="4">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="L55" s="4">
+        <f t="shared" si="3"/>
+        <v>1.4897085218550541</v>
+      </c>
+      <c r="M55" s="4">
+        <f t="shared" si="4"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="5"/>
+        <v>6.2334753483213357</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>150</v>
+      </c>
+      <c r="B56" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C56" s="2">
+        <v>125</v>
+      </c>
+      <c r="D56" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="E56" s="2">
+        <v>100</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G56" s="2">
+        <v>93</v>
+      </c>
+      <c r="H56" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I56" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J56" s="4">
+        <f t="shared" si="1"/>
+        <v>612.5</v>
+      </c>
+      <c r="K56" s="4">
+        <f t="shared" si="2"/>
+        <v>-87.5</v>
+      </c>
+      <c r="L56" s="4">
+        <f t="shared" si="3"/>
+        <v>-4.9244064047338068</v>
+      </c>
+      <c r="M56" s="4">
+        <f t="shared" si="4"/>
+        <v>4.083333333333333</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="5"/>
+        <v>5.9029073526545588</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>150</v>
+      </c>
+      <c r="B57" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C57" s="2">
+        <v>150</v>
+      </c>
+      <c r="D57" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="E57" s="2">
+        <v>100</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G57" s="2">
+        <v>93</v>
+      </c>
+      <c r="H57" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I57" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J57" s="4">
+        <f t="shared" si="1"/>
+        <v>725</v>
+      </c>
+      <c r="K57" s="4">
+        <f t="shared" si="2"/>
+        <v>-200</v>
+      </c>
+      <c r="L57" s="4">
+        <f t="shared" si="3"/>
+        <v>-10.589159121635044</v>
+      </c>
+      <c r="M57" s="4">
+        <f t="shared" si="4"/>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="5"/>
+        <v>5.6055280987654781</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>150</v>
+      </c>
+      <c r="B58" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C58" s="2">
+        <v>50</v>
+      </c>
+      <c r="D58" s="2">
+        <v>4</v>
+      </c>
+      <c r="E58" s="2">
+        <v>100</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G58" s="2">
+        <v>93</v>
+      </c>
+      <c r="H58" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I58" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J58" s="4">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="K58" s="4">
+        <f t="shared" si="2"/>
+        <v>275</v>
+      </c>
+      <c r="L58" s="4">
+        <f t="shared" si="3"/>
+        <v>17.872611138397193</v>
+      </c>
+      <c r="M58" s="4">
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>150</v>
+      </c>
+      <c r="B59" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C59" s="2">
+        <v>75</v>
+      </c>
+      <c r="D59" s="2">
+        <v>4</v>
+      </c>
+      <c r="E59" s="2">
+        <v>100</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G59" s="2">
+        <v>93</v>
+      </c>
+      <c r="H59" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I59" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J59" s="4">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="K59" s="4">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="L59" s="4">
+        <f t="shared" si="3"/>
+        <v>10.91996276376957</v>
+      </c>
+      <c r="M59" s="4">
+        <f t="shared" si="4"/>
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>150</v>
+      </c>
+      <c r="B60" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C60" s="2">
+        <v>100</v>
+      </c>
+      <c r="D60" s="2">
+        <v>4</v>
+      </c>
+      <c r="E60" s="2">
+        <v>100</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G60" s="2">
+        <v>93</v>
+      </c>
+      <c r="H60" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I60" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J60" s="4">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="K60" s="4">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="L60" s="4">
+        <f t="shared" si="3"/>
+        <v>4.4610961472149535</v>
+      </c>
+      <c r="M60" s="4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>150</v>
+      </c>
+      <c r="B61" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C61" s="2">
+        <v>125</v>
+      </c>
+      <c r="D61" s="2">
+        <v>4</v>
+      </c>
+      <c r="E61" s="2">
+        <v>100</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G61" s="2">
+        <v>93</v>
+      </c>
+      <c r="H61" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I61" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J61" s="4">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
+      <c r="K61" s="4">
+        <f t="shared" si="2"/>
+        <v>-25</v>
+      </c>
+      <c r="L61" s="4">
+        <f t="shared" si="3"/>
+        <v>-1.4101631137671322</v>
+      </c>
+      <c r="M61" s="4">
+        <f t="shared" si="4"/>
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>150</v>
+      </c>
+      <c r="B62" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C62" s="2">
+        <v>150</v>
+      </c>
+      <c r="D62" s="2">
+        <v>4</v>
+      </c>
+      <c r="E62" s="2">
+        <v>100</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G62" s="2">
+        <v>93</v>
+      </c>
+      <c r="H62" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I62" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J62" s="4">
+        <f t="shared" si="1"/>
+        <v>650</v>
+      </c>
+      <c r="K62" s="4">
+        <f t="shared" si="2"/>
+        <v>-125</v>
+      </c>
+      <c r="L62" s="4">
+        <f t="shared" si="3"/>
+        <v>-6.6644023785753674</v>
+      </c>
+      <c r="M62" s="4">
+        <f t="shared" si="4"/>
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>150</v>
+      </c>
+      <c r="B63" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C63" s="2">
+        <v>50</v>
+      </c>
+      <c r="D63" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="E63" s="2">
+        <v>100</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G63" s="2">
+        <v>93</v>
+      </c>
+      <c r="H63" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I63" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J63" s="4">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="K63" s="4">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="L63" s="4">
+        <f t="shared" si="3"/>
+        <v>19.380762516811583</v>
+      </c>
+      <c r="M63" s="4">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>150</v>
+      </c>
+      <c r="B64" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C64" s="2">
+        <v>75</v>
+      </c>
+      <c r="D64" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="E64" s="2">
+        <v>100</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G64" s="2">
+        <v>93</v>
+      </c>
+      <c r="H64" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I64" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J64" s="4">
+        <f t="shared" si="1"/>
+        <v>312.5</v>
+      </c>
+      <c r="K64" s="4">
+        <f t="shared" si="2"/>
+        <v>212.5</v>
+      </c>
+      <c r="L64" s="4">
+        <f t="shared" si="3"/>
+        <v>13.185090647848201</v>
+      </c>
+      <c r="M64" s="4">
+        <f t="shared" si="4"/>
+        <v>2.0833333333333335</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>150</v>
+      </c>
+      <c r="B65" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C65" s="2">
+        <v>100</v>
+      </c>
+      <c r="D65" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="E65" s="2">
+        <v>100</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G65" s="2">
+        <v>93</v>
+      </c>
+      <c r="H65" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I65" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J65" s="4">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="K65" s="4">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="L65" s="4">
+        <f t="shared" si="3"/>
+        <v>7.4086528755092393</v>
+      </c>
+      <c r="M65" s="4">
+        <f t="shared" si="4"/>
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>150</v>
+      </c>
+      <c r="B66" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C66" s="2">
+        <v>125</v>
+      </c>
+      <c r="D66" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="E66" s="2">
+        <v>100</v>
+      </c>
+      <c r="F66" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G66" s="2">
+        <v>93</v>
+      </c>
+      <c r="H66" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I66" s="4">
+        <f t="shared" si="0"/>
+        <v>525</v>
+      </c>
+      <c r="J66" s="4">
+        <f t="shared" si="1"/>
+        <v>487.5</v>
+      </c>
+      <c r="K66" s="4">
+        <f t="shared" si="2"/>
+        <v>37.5</v>
+      </c>
+      <c r="L66" s="4">
+        <f t="shared" si="3"/>
+        <v>2.1147110987155942</v>
+      </c>
+      <c r="M66" s="4">
+        <f t="shared" si="4"/>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>150</v>
+      </c>
+      <c r="B67" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C67" s="2">
+        <v>150</v>
+      </c>
+      <c r="D67" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="E67" s="2">
+        <v>100</v>
+      </c>
+      <c r="F67" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G67" s="2">
+        <v>93</v>
+      </c>
+      <c r="H67" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I67" s="4">
+        <f t="shared" ref="I67:I126" si="7">A67*B67</f>
+        <v>525</v>
+      </c>
+      <c r="J67" s="4">
+        <f t="shared" ref="J67:J127" si="8">C67*D67+E67*F67</f>
+        <v>575</v>
+      </c>
+      <c r="K67" s="4">
+        <f t="shared" ref="K67:K127" si="9">I67-J67</f>
+        <v>-50</v>
+      </c>
+      <c r="L67" s="4">
+        <f t="shared" ref="L67:L126" si="10">DEGREES(ATAN((A67*B67-C67*D67-E67*F67)/(H67*(A67+C67+E67+G67))))</f>
+        <v>-2.6759011255820697</v>
+      </c>
+      <c r="M67" s="4">
+        <f t="shared" ref="M67:M127" si="11">(C67*D67+E67*F67)/A67</f>
+        <v>3.8333333333333335</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>150</v>
+      </c>
+      <c r="B68" s="4">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="C68" s="2">
+        <v>50</v>
+      </c>
+      <c r="D68" s="2">
+        <v>3</v>
+      </c>
+      <c r="E68" s="2">
+        <v>100</v>
+      </c>
+      <c r="F68" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G68" s="2">
+        <v>93</v>
+      </c>
+      <c r="H68" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I68" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J68" s="4">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="K68" s="4">
+        <f t="shared" si="9"/>
+        <v>325</v>
+      </c>
+      <c r="L68" s="4">
+        <f t="shared" si="10"/>
+        <v>20.861498133841614</v>
+      </c>
+      <c r="M68" s="4">
+        <f t="shared" si="11"/>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>150</v>
+      </c>
+      <c r="B69" s="4">
+        <f t="shared" ref="B69:B127" si="12">$B$3</f>
+        <v>3.5</v>
+      </c>
+      <c r="C69" s="2">
+        <v>75</v>
+      </c>
+      <c r="D69" s="2">
+        <v>3</v>
+      </c>
+      <c r="E69" s="2">
+        <v>100</v>
+      </c>
+      <c r="F69" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G69" s="2">
+        <v>93</v>
+      </c>
+      <c r="H69" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I69" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J69" s="4">
+        <f t="shared" si="8"/>
+        <v>275</v>
+      </c>
+      <c r="K69" s="4">
+        <f t="shared" si="9"/>
+        <v>250</v>
+      </c>
+      <c r="L69" s="4">
+        <f t="shared" si="10"/>
+        <v>15.40904419967104</v>
+      </c>
+      <c r="M69" s="4">
+        <f t="shared" si="11"/>
+        <v>1.8333333333333333</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>150</v>
+      </c>
+      <c r="B70" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C70" s="2">
+        <v>100</v>
+      </c>
+      <c r="D70" s="2">
+        <v>3</v>
+      </c>
+      <c r="E70" s="2">
+        <v>100</v>
+      </c>
+      <c r="F70" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G70" s="2">
+        <v>93</v>
+      </c>
+      <c r="H70" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I70" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J70" s="4">
+        <f t="shared" si="8"/>
+        <v>350</v>
+      </c>
+      <c r="K70" s="4">
+        <f t="shared" si="9"/>
+        <v>175</v>
+      </c>
+      <c r="L70" s="4">
+        <f t="shared" si="10"/>
+        <v>10.317328969247406</v>
+      </c>
+      <c r="M70" s="4">
+        <f t="shared" si="11"/>
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>150</v>
+      </c>
+      <c r="B71" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C71" s="2">
+        <v>125</v>
+      </c>
+      <c r="D71" s="2">
+        <v>3</v>
+      </c>
+      <c r="E71" s="2">
+        <v>100</v>
+      </c>
+      <c r="F71" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G71" s="2">
+        <v>93</v>
+      </c>
+      <c r="H71" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I71" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J71" s="4">
+        <f t="shared" si="8"/>
+        <v>425</v>
+      </c>
+      <c r="K71" s="4">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="L71" s="4">
+        <f t="shared" si="10"/>
+        <v>5.6236629096102222</v>
+      </c>
+      <c r="M71" s="4">
+        <f t="shared" si="11"/>
+        <v>2.8333333333333335</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>150</v>
+      </c>
+      <c r="B72" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C72" s="2">
+        <v>150</v>
+      </c>
+      <c r="D72" s="2">
+        <v>3</v>
+      </c>
+      <c r="E72" s="2">
+        <v>100</v>
+      </c>
+      <c r="F72" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G72" s="2">
+        <v>93</v>
+      </c>
+      <c r="H72" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I72" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J72" s="4">
+        <f t="shared" si="8"/>
+        <v>500</v>
+      </c>
+      <c r="K72" s="4">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="L72" s="4">
+        <f t="shared" si="10"/>
+        <v>1.3386805441759793</v>
+      </c>
+      <c r="M72" s="4">
+        <f t="shared" si="11"/>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>150</v>
+      </c>
+      <c r="B73" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C73" s="2">
+        <v>50</v>
+      </c>
+      <c r="D73" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E73" s="2">
+        <v>100</v>
+      </c>
+      <c r="F73" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G73" s="2">
+        <v>93</v>
+      </c>
+      <c r="H73" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I73" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J73" s="4">
+        <f t="shared" si="8"/>
+        <v>175</v>
+      </c>
+      <c r="K73" s="4">
+        <f t="shared" si="9"/>
+        <v>350</v>
+      </c>
+      <c r="L73" s="4">
+        <f t="shared" si="10"/>
+        <v>22.313636186505448</v>
+      </c>
+      <c r="M73" s="4">
+        <f t="shared" si="11"/>
+        <v>1.1666666666666667</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>150</v>
+      </c>
+      <c r="B74" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C74" s="2">
+        <v>75</v>
+      </c>
+      <c r="D74" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E74" s="2">
+        <v>100</v>
+      </c>
+      <c r="F74" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G74" s="2">
+        <v>93</v>
+      </c>
+      <c r="H74" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I74" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J74" s="4">
+        <f t="shared" si="8"/>
+        <v>237.5</v>
+      </c>
+      <c r="K74" s="4">
+        <f t="shared" si="9"/>
+        <v>287.5</v>
+      </c>
+      <c r="L74" s="4">
+        <f t="shared" si="10"/>
+        <v>17.586432767642691</v>
+      </c>
+      <c r="M74" s="4">
+        <f t="shared" si="11"/>
+        <v>1.5833333333333333</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>150</v>
+      </c>
+      <c r="B75" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C75" s="2">
+        <v>100</v>
+      </c>
+      <c r="D75" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E75" s="2">
+        <v>100</v>
+      </c>
+      <c r="F75" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G75" s="2">
+        <v>93</v>
+      </c>
+      <c r="H75" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I75" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J75" s="4">
+        <f t="shared" si="8"/>
+        <v>300</v>
+      </c>
+      <c r="K75" s="4">
+        <f t="shared" si="9"/>
+        <v>225</v>
+      </c>
+      <c r="L75" s="4">
+        <f t="shared" si="10"/>
+        <v>13.173262759099716</v>
+      </c>
+      <c r="M75" s="4">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>150</v>
+      </c>
+      <c r="B76" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C76" s="2">
+        <v>125</v>
+      </c>
+      <c r="D76" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E76" s="2">
+        <v>100</v>
+      </c>
+      <c r="F76" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G76" s="2">
+        <v>93</v>
+      </c>
+      <c r="H76" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I76" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J76" s="4">
+        <f t="shared" si="8"/>
+        <v>362.5</v>
+      </c>
+      <c r="K76" s="4">
+        <f t="shared" si="9"/>
+        <v>162.5</v>
+      </c>
+      <c r="L76" s="4">
+        <f t="shared" si="10"/>
+        <v>9.0908490204679655</v>
+      </c>
+      <c r="M76" s="4">
+        <f t="shared" si="11"/>
+        <v>2.4166666666666665</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>150</v>
+      </c>
+      <c r="B77" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C77" s="2">
+        <v>150</v>
+      </c>
+      <c r="D77" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E77" s="2">
+        <v>100</v>
+      </c>
+      <c r="F77" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G77" s="2">
+        <v>93</v>
+      </c>
+      <c r="H77" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I77" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J77" s="4">
+        <f t="shared" si="8"/>
+        <v>425</v>
+      </c>
+      <c r="K77" s="4">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="L77" s="4">
+        <f t="shared" si="10"/>
+        <v>5.3401795792825837</v>
+      </c>
+      <c r="M77" s="4">
+        <f t="shared" si="11"/>
+        <v>2.8333333333333335</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>150</v>
+      </c>
+      <c r="B78" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C78" s="1">
+        <v>50</v>
+      </c>
+      <c r="D78" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E78" s="1">
+        <v>125</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G78" s="1">
+        <v>93</v>
+      </c>
+      <c r="H78" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I78" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J78" s="4">
+        <f t="shared" si="8"/>
+        <v>287.5</v>
+      </c>
+      <c r="K78" s="4">
+        <f t="shared" si="9"/>
+        <v>237.5</v>
+      </c>
+      <c r="L78" s="4">
+        <f t="shared" si="10"/>
+        <v>14.672649328994595</v>
+      </c>
+      <c r="M78" s="4">
+        <f t="shared" si="11"/>
+        <v>1.9166666666666667</v>
+      </c>
+      <c r="N78">
+        <f t="shared" ref="N67:N127" si="13">DEGREES(ATAN((A78*(M78+$O$1)-C78*D78-E78*F78)/(H78*(A78+C78+E78+G78))))</f>
+        <v>6.6030902284829169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>150</v>
+      </c>
+      <c r="B79" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C79" s="1">
+        <v>75</v>
+      </c>
+      <c r="D79" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E79" s="1">
+        <v>125</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G79" s="1">
+        <v>93</v>
+      </c>
+      <c r="H79" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I79" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J79" s="4">
+        <f t="shared" si="8"/>
+        <v>400</v>
+      </c>
+      <c r="K79" s="4">
+        <f t="shared" si="9"/>
+        <v>125</v>
+      </c>
+      <c r="L79" s="4">
+        <f t="shared" si="10"/>
+        <v>7.4086528755092393</v>
+      </c>
+      <c r="M79" s="4">
+        <f t="shared" si="11"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="13"/>
+        <v>6.2334753483213321</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>150</v>
+      </c>
+      <c r="B80" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C80" s="1">
+        <v>100</v>
+      </c>
+      <c r="D80" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E80" s="1">
+        <v>125</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G80" s="1">
+        <v>93</v>
+      </c>
+      <c r="H80" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I80" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J80" s="4">
+        <f t="shared" si="8"/>
+        <v>512.5</v>
+      </c>
+      <c r="K80" s="4">
+        <f t="shared" si="9"/>
+        <v>12.5</v>
+      </c>
+      <c r="L80" s="4">
+        <f t="shared" si="10"/>
+        <v>0.7051883488467624</v>
+      </c>
+      <c r="M80" s="4">
+        <f t="shared" si="11"/>
+        <v>3.4166666666666665</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="13"/>
+        <v>5.9029073526545526</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>150</v>
+      </c>
+      <c r="B81" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C81" s="1">
+        <v>125</v>
+      </c>
+      <c r="D81" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E81" s="1">
+        <v>125</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G81" s="1">
+        <v>93</v>
+      </c>
+      <c r="H81" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I81" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J81" s="4">
+        <f t="shared" si="8"/>
+        <v>625</v>
+      </c>
+      <c r="K81" s="4">
+        <f t="shared" si="9"/>
+        <v>-100</v>
+      </c>
+      <c r="L81" s="4">
+        <f t="shared" si="10"/>
+        <v>-5.3401795792825837</v>
+      </c>
+      <c r="M81" s="4">
+        <f t="shared" si="11"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="13"/>
+        <v>5.6055280987654843</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>150</v>
+      </c>
+      <c r="B82" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C82" s="1">
+        <v>150</v>
+      </c>
+      <c r="D82" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E82" s="1">
+        <v>125</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G82" s="1">
+        <v>93</v>
+      </c>
+      <c r="H82" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I82" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J82" s="4">
+        <f t="shared" si="8"/>
+        <v>737.5</v>
+      </c>
+      <c r="K82" s="4">
+        <f t="shared" si="9"/>
+        <v>-212.5</v>
+      </c>
+      <c r="L82" s="4">
+        <f t="shared" si="10"/>
+        <v>-10.705249091380969</v>
+      </c>
+      <c r="M82" s="4">
+        <f t="shared" si="11"/>
+        <v>4.916666666666667</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="13"/>
+        <v>5.3365921888690799</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>150</v>
+      </c>
+      <c r="B83" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C83" s="1">
+        <v>50</v>
+      </c>
+      <c r="D83" s="1">
+        <v>4</v>
+      </c>
+      <c r="E83" s="1">
+        <v>125</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G83" s="1">
+        <v>93</v>
+      </c>
+      <c r="H83" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I83" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J83" s="4">
+        <f t="shared" si="8"/>
+        <v>262.5</v>
+      </c>
+      <c r="K83" s="4">
+        <f t="shared" si="9"/>
+        <v>262.5</v>
+      </c>
+      <c r="L83" s="4">
+        <f t="shared" si="10"/>
+        <v>16.14025890902267</v>
+      </c>
+      <c r="M83" s="4">
+        <f t="shared" si="11"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>150</v>
+      </c>
+      <c r="B84" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C84" s="1">
+        <v>75</v>
+      </c>
+      <c r="D84" s="1">
+        <v>4</v>
+      </c>
+      <c r="E84" s="1">
+        <v>125</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G84" s="1">
+        <v>93</v>
+      </c>
+      <c r="H84" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I84" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J84" s="4">
+        <f t="shared" si="8"/>
+        <v>362.5</v>
+      </c>
+      <c r="K84" s="4">
+        <f t="shared" si="9"/>
+        <v>162.5</v>
+      </c>
+      <c r="L84" s="4">
+        <f t="shared" si="10"/>
+        <v>9.5945869994080315</v>
+      </c>
+      <c r="M84" s="4">
+        <f t="shared" si="11"/>
+        <v>2.4166666666666665</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>150</v>
+      </c>
+      <c r="B85" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C85" s="1">
+        <v>100</v>
+      </c>
+      <c r="D85" s="1">
+        <v>4</v>
+      </c>
+      <c r="E85" s="1">
+        <v>125</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G85" s="1">
+        <v>93</v>
+      </c>
+      <c r="H85" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I85" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J85" s="4">
+        <f t="shared" si="8"/>
+        <v>462.5</v>
+      </c>
+      <c r="K85" s="4">
+        <f t="shared" si="9"/>
+        <v>62.5</v>
+      </c>
+      <c r="L85" s="4">
+        <f t="shared" si="10"/>
+        <v>3.5216781971444693</v>
+      </c>
+      <c r="M85" s="4">
+        <f t="shared" si="11"/>
+        <v>3.0833333333333335</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>150</v>
+      </c>
+      <c r="B86" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C86" s="1">
+        <v>125</v>
+      </c>
+      <c r="D86" s="1">
+        <v>4</v>
+      </c>
+      <c r="E86" s="1">
+        <v>125</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G86" s="1">
+        <v>93</v>
+      </c>
+      <c r="H86" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I86" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J86" s="4">
+        <f t="shared" si="8"/>
+        <v>562.5</v>
+      </c>
+      <c r="K86" s="4">
+        <f t="shared" si="9"/>
+        <v>-37.5</v>
+      </c>
+      <c r="L86" s="4">
+        <f t="shared" si="10"/>
+        <v>-2.0075643166031396</v>
+      </c>
+      <c r="M86" s="4">
+        <f t="shared" si="11"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>150</v>
+      </c>
+      <c r="B87" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C87" s="1">
+        <v>150</v>
+      </c>
+      <c r="D87" s="1">
+        <v>4</v>
+      </c>
+      <c r="E87" s="1">
+        <v>125</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G87" s="1">
+        <v>93</v>
+      </c>
+      <c r="H87" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I87" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J87" s="4">
+        <f t="shared" si="8"/>
+        <v>662.5</v>
+      </c>
+      <c r="K87" s="4">
+        <f t="shared" si="9"/>
+        <v>-137.5</v>
+      </c>
+      <c r="L87" s="4">
+        <f t="shared" si="10"/>
+        <v>-6.9740266135532041</v>
+      </c>
+      <c r="M87" s="4">
+        <f t="shared" si="11"/>
+        <v>4.416666666666667</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>150</v>
+      </c>
+      <c r="B88" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C88" s="1">
+        <v>50</v>
+      </c>
+      <c r="D88" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E88" s="1">
+        <v>125</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G88" s="1">
+        <v>93</v>
+      </c>
+      <c r="H88" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I88" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J88" s="4">
+        <f t="shared" si="8"/>
+        <v>237.5</v>
+      </c>
+      <c r="K88" s="4">
+        <f t="shared" si="9"/>
+        <v>287.5</v>
+      </c>
+      <c r="L88" s="4">
+        <f t="shared" si="10"/>
+        <v>17.586432767642691</v>
+      </c>
+      <c r="M88" s="4">
+        <f t="shared" si="11"/>
+        <v>1.5833333333333333</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>150</v>
+      </c>
+      <c r="B89" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C89" s="1">
+        <v>75</v>
+      </c>
+      <c r="D89" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E89" s="1">
+        <v>125</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G89" s="1">
+        <v>93</v>
+      </c>
+      <c r="H89" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I89" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J89" s="4">
+        <f t="shared" si="8"/>
+        <v>325</v>
+      </c>
+      <c r="K89" s="4">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="L89" s="4">
+        <f t="shared" si="10"/>
+        <v>11.752698367162525</v>
+      </c>
+      <c r="M89" s="4">
+        <f t="shared" si="11"/>
+        <v>2.1666666666666665</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>150</v>
+      </c>
+      <c r="B90" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C90" s="1">
+        <v>100</v>
+      </c>
+      <c r="D90" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E90" s="1">
+        <v>125</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G90" s="1">
+        <v>93</v>
+      </c>
+      <c r="H90" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I90" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J90" s="4">
+        <f t="shared" si="8"/>
+        <v>412.5</v>
+      </c>
+      <c r="K90" s="4">
+        <f t="shared" si="9"/>
+        <v>112.5</v>
+      </c>
+      <c r="L90" s="4">
+        <f t="shared" si="10"/>
+        <v>6.3212428865785339</v>
+      </c>
+      <c r="M90" s="4">
+        <f t="shared" si="11"/>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>150</v>
+      </c>
+      <c r="B91" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C91" s="1">
+        <v>125</v>
+      </c>
+      <c r="D91" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E91" s="1">
+        <v>125</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G91" s="1">
+        <v>93</v>
+      </c>
+      <c r="H91" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I91" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J91" s="4">
+        <f t="shared" si="8"/>
+        <v>500</v>
+      </c>
+      <c r="K91" s="4">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="L91" s="4">
+        <f t="shared" si="10"/>
+        <v>1.3386805441759793</v>
+      </c>
+      <c r="M91" s="4">
+        <f t="shared" si="11"/>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>150</v>
+      </c>
+      <c r="B92" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C92" s="1">
+        <v>150</v>
+      </c>
+      <c r="D92" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E92" s="1">
+        <v>125</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G92" s="1">
+        <v>93</v>
+      </c>
+      <c r="H92" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I92" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J92" s="4">
+        <f t="shared" si="8"/>
+        <v>587.5</v>
+      </c>
+      <c r="K92" s="4">
+        <f t="shared" si="9"/>
+        <v>-62.5</v>
+      </c>
+      <c r="L92" s="4">
+        <f t="shared" si="10"/>
+        <v>-3.1824838027204914</v>
+      </c>
+      <c r="M92" s="4">
+        <f t="shared" si="11"/>
+        <v>3.9166666666666665</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>150</v>
+      </c>
+      <c r="B93" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C93" s="1">
+        <v>50</v>
+      </c>
+      <c r="D93" s="1">
+        <v>3</v>
+      </c>
+      <c r="E93" s="1">
+        <v>125</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G93" s="1">
+        <v>93</v>
+      </c>
+      <c r="H93" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I93" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J93" s="4">
+        <f t="shared" si="8"/>
+        <v>212.5</v>
+      </c>
+      <c r="K93" s="4">
+        <f t="shared" si="9"/>
+        <v>312.5</v>
+      </c>
+      <c r="L93" s="4">
+        <f t="shared" si="10"/>
+        <v>19.009836418049886</v>
+      </c>
+      <c r="M93" s="4">
+        <f t="shared" si="11"/>
+        <v>1.4166666666666667</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>150</v>
+      </c>
+      <c r="B94" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C94" s="1">
+        <v>75</v>
+      </c>
+      <c r="D94" s="1">
+        <v>3</v>
+      </c>
+      <c r="E94" s="1">
+        <v>125</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G94" s="1">
+        <v>93</v>
+      </c>
+      <c r="H94" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I94" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J94" s="4">
+        <f t="shared" si="8"/>
+        <v>287.5</v>
+      </c>
+      <c r="K94" s="4">
+        <f t="shared" si="9"/>
+        <v>237.5</v>
+      </c>
+      <c r="L94" s="4">
+        <f t="shared" si="10"/>
+        <v>13.877523194610601</v>
+      </c>
+      <c r="M94" s="4">
+        <f t="shared" si="11"/>
+        <v>1.9166666666666667</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>150</v>
+      </c>
+      <c r="B95" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C95" s="1">
+        <v>100</v>
+      </c>
+      <c r="D95" s="1">
+        <v>3</v>
+      </c>
+      <c r="E95" s="1">
+        <v>125</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G95" s="1">
+        <v>93</v>
+      </c>
+      <c r="H95" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I95" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J95" s="4">
+        <f t="shared" si="8"/>
+        <v>362.5</v>
+      </c>
+      <c r="K95" s="4">
+        <f t="shared" si="9"/>
+        <v>162.5</v>
+      </c>
+      <c r="L95" s="4">
+        <f t="shared" si="10"/>
+        <v>9.0908490204679655</v>
+      </c>
+      <c r="M95" s="4">
+        <f t="shared" si="11"/>
+        <v>2.4166666666666665</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>150</v>
+      </c>
+      <c r="B96" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C96" s="1">
+        <v>125</v>
+      </c>
+      <c r="D96" s="1">
+        <v>3</v>
+      </c>
+      <c r="E96" s="1">
+        <v>125</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G96" s="1">
+        <v>93</v>
+      </c>
+      <c r="H96" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I96" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J96" s="4">
+        <f t="shared" si="8"/>
+        <v>437.5</v>
+      </c>
+      <c r="K96" s="4">
+        <f t="shared" si="9"/>
+        <v>87.5</v>
+      </c>
+      <c r="L96" s="4">
+        <f t="shared" si="10"/>
+        <v>4.6758266668111625</v>
+      </c>
+      <c r="M96" s="4">
+        <f t="shared" si="11"/>
+        <v>2.9166666666666665</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>150</v>
+      </c>
+      <c r="B97" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C97" s="1">
+        <v>150</v>
+      </c>
+      <c r="D97" s="1">
+        <v>3</v>
+      </c>
+      <c r="E97" s="1">
+        <v>125</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G97" s="1">
+        <v>93</v>
+      </c>
+      <c r="H97" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I97" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J97" s="4">
+        <f t="shared" si="8"/>
+        <v>512.5</v>
+      </c>
+      <c r="K97" s="4">
+        <f t="shared" si="9"/>
+        <v>12.5</v>
+      </c>
+      <c r="L97" s="4">
+        <f t="shared" si="10"/>
+        <v>0.63712588620851773</v>
+      </c>
+      <c r="M97" s="4">
+        <f t="shared" si="11"/>
+        <v>3.4166666666666665</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>150</v>
+      </c>
+      <c r="B98" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C98" s="1">
+        <v>50</v>
+      </c>
+      <c r="D98" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E98" s="1">
+        <v>125</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G98" s="1">
+        <v>93</v>
+      </c>
+      <c r="H98" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I98" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J98" s="4">
+        <f t="shared" si="8"/>
+        <v>187.5</v>
+      </c>
+      <c r="K98" s="4">
+        <f t="shared" si="9"/>
+        <v>337.5</v>
+      </c>
+      <c r="L98" s="4">
+        <f t="shared" si="10"/>
+        <v>20.409289276740008</v>
+      </c>
+      <c r="M98" s="4">
+        <f t="shared" si="11"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>150</v>
+      </c>
+      <c r="B99" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C99" s="1">
+        <v>75</v>
+      </c>
+      <c r="D99" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E99" s="1">
+        <v>125</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G99" s="1">
+        <v>93</v>
+      </c>
+      <c r="H99" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I99" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J99" s="4">
+        <f t="shared" si="8"/>
+        <v>250</v>
+      </c>
+      <c r="K99" s="4">
+        <f t="shared" si="9"/>
+        <v>275</v>
+      </c>
+      <c r="L99" s="4">
+        <f t="shared" si="10"/>
+        <v>15.964129348607399</v>
+      </c>
+      <c r="M99" s="4">
+        <f t="shared" si="11"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>150</v>
+      </c>
+      <c r="B100" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C100" s="1">
+        <v>100</v>
+      </c>
+      <c r="D100" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E100" s="1">
+        <v>125</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G100" s="1">
+        <v>93</v>
+      </c>
+      <c r="H100" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I100" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J100" s="4">
+        <f t="shared" si="8"/>
+        <v>312.5</v>
+      </c>
+      <c r="K100" s="4">
+        <f t="shared" si="9"/>
+        <v>212.5</v>
+      </c>
+      <c r="L100" s="4">
+        <f t="shared" si="10"/>
+        <v>11.818295575463692</v>
+      </c>
+      <c r="M100" s="4">
+        <f t="shared" si="11"/>
+        <v>2.0833333333333335</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>150</v>
+      </c>
+      <c r="B101" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C101" s="1">
+        <v>125</v>
+      </c>
+      <c r="D101" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E101" s="1">
+        <v>125</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G101" s="1">
+        <v>93</v>
+      </c>
+      <c r="H101" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I101" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J101" s="4">
+        <f t="shared" si="8"/>
+        <v>375</v>
+      </c>
+      <c r="K101" s="4">
+        <f t="shared" si="9"/>
+        <v>150</v>
+      </c>
+      <c r="L101" s="4">
+        <f t="shared" si="10"/>
+        <v>7.9815127636165686</v>
+      </c>
+      <c r="M101" s="4">
+        <f t="shared" si="11"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>150</v>
+      </c>
+      <c r="B102" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C102" s="1">
+        <v>150</v>
+      </c>
+      <c r="D102" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E102" s="1">
+        <v>125</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G102" s="1">
+        <v>93</v>
+      </c>
+      <c r="H102" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="I102" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J102" s="4">
+        <f t="shared" si="8"/>
+        <v>437.5</v>
+      </c>
+      <c r="K102" s="4">
+        <f t="shared" si="9"/>
+        <v>87.5</v>
+      </c>
+      <c r="L102" s="4">
+        <f t="shared" si="10"/>
+        <v>4.4510890553125551</v>
+      </c>
+      <c r="M102" s="4">
+        <f t="shared" si="11"/>
+        <v>2.9166666666666665</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>150</v>
+      </c>
+      <c r="B103" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C103" s="2">
+        <v>50</v>
+      </c>
+      <c r="D103" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="E103" s="2">
+        <v>150</v>
+      </c>
+      <c r="F103" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G103" s="2">
+        <v>93</v>
+      </c>
+      <c r="H103" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I103" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J103" s="4">
+        <f t="shared" si="8"/>
+        <v>300</v>
+      </c>
+      <c r="K103" s="4">
+        <f t="shared" si="9"/>
+        <v>225</v>
+      </c>
+      <c r="L103" s="4">
+        <f t="shared" si="10"/>
+        <v>13.173262759099716</v>
+      </c>
+      <c r="M103" s="4">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="13"/>
+        <v>6.2334753483213357</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>150</v>
+      </c>
+      <c r="B104" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C104" s="2">
+        <v>75</v>
+      </c>
+      <c r="D104" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="E104" s="2">
+        <v>150</v>
+      </c>
+      <c r="F104" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G104" s="2">
+        <v>93</v>
+      </c>
+      <c r="H104" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I104" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J104" s="4">
+        <f t="shared" si="8"/>
+        <v>412.5</v>
+      </c>
+      <c r="K104" s="4">
+        <f t="shared" si="9"/>
+        <v>112.5</v>
+      </c>
+      <c r="L104" s="4">
+        <f t="shared" si="10"/>
+        <v>6.3212428865785339</v>
+      </c>
+      <c r="M104" s="4">
+        <f t="shared" si="11"/>
+        <v>2.75</v>
+      </c>
+      <c r="N104">
+        <f t="shared" si="13"/>
+        <v>5.9029073526545588</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>150</v>
+      </c>
+      <c r="B105" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C105" s="2">
+        <v>100</v>
+      </c>
+      <c r="D105" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="E105" s="2">
+        <v>150</v>
+      </c>
+      <c r="F105" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G105" s="2">
+        <v>93</v>
+      </c>
+      <c r="H105" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I105" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J105" s="4">
+        <f t="shared" si="8"/>
+        <v>525</v>
+      </c>
+      <c r="K105" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L105" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M105" s="4">
+        <f t="shared" si="11"/>
+        <v>3.5</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="13"/>
+        <v>5.6055280987654781</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>150</v>
+      </c>
+      <c r="B106" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C106" s="2">
+        <v>125</v>
+      </c>
+      <c r="D106" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="E106" s="2">
+        <v>150</v>
+      </c>
+      <c r="F106" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G106" s="2">
+        <v>93</v>
+      </c>
+      <c r="H106" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I106" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J106" s="4">
+        <f t="shared" si="8"/>
+        <v>637.5</v>
+      </c>
+      <c r="K106" s="4">
+        <f t="shared" si="9"/>
+        <v>-112.5</v>
+      </c>
+      <c r="L106" s="4">
+        <f t="shared" si="10"/>
+        <v>-5.7153370429192396</v>
+      </c>
+      <c r="M106" s="4">
+        <f t="shared" si="11"/>
+        <v>4.25</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="13"/>
+        <v>5.3365921888690746</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>150</v>
+      </c>
+      <c r="B107" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C107" s="2">
+        <v>150</v>
+      </c>
+      <c r="D107" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="E107" s="2">
+        <v>150</v>
+      </c>
+      <c r="F107" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G107" s="2">
+        <v>93</v>
+      </c>
+      <c r="H107" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I107" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J107" s="4">
+        <f t="shared" si="8"/>
+        <v>750</v>
+      </c>
+      <c r="K107" s="4">
+        <f t="shared" si="9"/>
+        <v>-225</v>
+      </c>
+      <c r="L107" s="4">
+        <f t="shared" si="10"/>
+        <v>-10.810572431585936</v>
+      </c>
+      <c r="M107" s="4">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="N107">
+        <f t="shared" si="13"/>
+        <v>5.0922154303045462</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>150</v>
+      </c>
+      <c r="B108" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C108" s="2">
+        <v>50</v>
+      </c>
+      <c r="D108" s="2">
+        <v>4</v>
+      </c>
+      <c r="E108" s="2">
+        <v>150</v>
+      </c>
+      <c r="F108" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G108" s="2">
+        <v>93</v>
+      </c>
+      <c r="H108" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I108" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J108" s="4">
+        <f t="shared" si="8"/>
+        <v>275</v>
+      </c>
+      <c r="K108" s="4">
+        <f t="shared" si="9"/>
+        <v>250</v>
+      </c>
+      <c r="L108" s="4">
+        <f t="shared" si="10"/>
+        <v>14.577532320164877</v>
+      </c>
+      <c r="M108" s="4">
+        <f t="shared" si="11"/>
+        <v>1.8333333333333333</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>150</v>
+      </c>
+      <c r="B109" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C109" s="2">
+        <v>75</v>
+      </c>
+      <c r="D109" s="2">
+        <v>4</v>
+      </c>
+      <c r="E109" s="2">
+        <v>150</v>
+      </c>
+      <c r="F109" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G109" s="2">
+        <v>93</v>
+      </c>
+      <c r="H109" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I109" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J109" s="4">
+        <f t="shared" si="8"/>
+        <v>375</v>
+      </c>
+      <c r="K109" s="4">
+        <f t="shared" si="9"/>
+        <v>150</v>
+      </c>
+      <c r="L109" s="4">
+        <f t="shared" si="10"/>
+        <v>8.4019405670474701</v>
+      </c>
+      <c r="M109" s="4">
+        <f t="shared" si="11"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>150</v>
+      </c>
+      <c r="B110" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C110" s="2">
+        <v>100</v>
+      </c>
+      <c r="D110" s="2">
+        <v>4</v>
+      </c>
+      <c r="E110" s="2">
+        <v>150</v>
+      </c>
+      <c r="F110" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G110" s="2">
+        <v>93</v>
+      </c>
+      <c r="H110" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I110" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J110" s="4">
+        <f t="shared" si="8"/>
+        <v>475</v>
+      </c>
+      <c r="K110" s="4">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="L110" s="4">
+        <f t="shared" si="10"/>
+        <v>2.6759011255820697</v>
+      </c>
+      <c r="M110" s="4">
+        <f t="shared" si="11"/>
+        <v>3.1666666666666665</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>150</v>
+      </c>
+      <c r="B111" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C111" s="2">
+        <v>125</v>
+      </c>
+      <c r="D111" s="2">
+        <v>4</v>
+      </c>
+      <c r="E111" s="2">
+        <v>150</v>
+      </c>
+      <c r="F111" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G111" s="2">
+        <v>93</v>
+      </c>
+      <c r="H111" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I111" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J111" s="4">
+        <f t="shared" si="8"/>
+        <v>575</v>
+      </c>
+      <c r="K111" s="4">
+        <f t="shared" si="9"/>
+        <v>-50</v>
+      </c>
+      <c r="L111" s="4">
+        <f t="shared" si="10"/>
+        <v>-2.5469296822424297</v>
+      </c>
+      <c r="M111" s="4">
+        <f t="shared" si="11"/>
+        <v>3.8333333333333335</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>150</v>
+      </c>
+      <c r="B112" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C112" s="2">
+        <v>150</v>
+      </c>
+      <c r="D112" s="2">
+        <v>4</v>
+      </c>
+      <c r="E112" s="2">
+        <v>150</v>
+      </c>
+      <c r="F112" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G112" s="2">
+        <v>93</v>
+      </c>
+      <c r="H112" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I112" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J112" s="4">
+        <f t="shared" si="8"/>
+        <v>675</v>
+      </c>
+      <c r="K112" s="4">
+        <f t="shared" si="9"/>
+        <v>-150</v>
+      </c>
+      <c r="L112" s="4">
+        <f t="shared" si="10"/>
+        <v>-7.2547867167822568</v>
+      </c>
+      <c r="M112" s="4">
+        <f t="shared" si="11"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>150</v>
+      </c>
+      <c r="B113" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C113" s="2">
+        <v>50</v>
+      </c>
+      <c r="D113" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="E113" s="2">
+        <v>150</v>
+      </c>
+      <c r="F113" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G113" s="2">
+        <v>93</v>
+      </c>
+      <c r="H113" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I113" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J113" s="4">
+        <f t="shared" si="8"/>
+        <v>250</v>
+      </c>
+      <c r="K113" s="4">
+        <f t="shared" si="9"/>
+        <v>275</v>
+      </c>
+      <c r="L113" s="4">
+        <f t="shared" si="10"/>
+        <v>15.964129348607399</v>
+      </c>
+      <c r="M113" s="4">
+        <f t="shared" si="11"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>150</v>
+      </c>
+      <c r="B114" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C114" s="2">
+        <v>75</v>
+      </c>
+      <c r="D114" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="E114" s="2">
+        <v>150</v>
+      </c>
+      <c r="F114" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G114" s="2">
+        <v>93</v>
+      </c>
+      <c r="H114" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I114" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J114" s="4">
+        <f t="shared" si="8"/>
+        <v>337.5</v>
+      </c>
+      <c r="K114" s="4">
+        <f t="shared" si="9"/>
+        <v>187.5</v>
+      </c>
+      <c r="L114" s="4">
+        <f t="shared" si="10"/>
+        <v>10.460563792481413</v>
+      </c>
+      <c r="M114" s="4">
+        <f t="shared" si="11"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>150</v>
+      </c>
+      <c r="B115" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C115" s="2">
+        <v>100</v>
+      </c>
+      <c r="D115" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="E115" s="2">
+        <v>150</v>
+      </c>
+      <c r="F115" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G115" s="2">
+        <v>93</v>
+      </c>
+      <c r="H115" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I115" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J115" s="4">
+        <f t="shared" si="8"/>
+        <v>425</v>
+      </c>
+      <c r="K115" s="4">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="L115" s="4">
+        <f t="shared" si="10"/>
+        <v>5.3401795792825837</v>
+      </c>
+      <c r="M115" s="4">
+        <f t="shared" si="11"/>
+        <v>2.8333333333333335</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>150</v>
+      </c>
+      <c r="B116" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C116" s="2">
+        <v>125</v>
+      </c>
+      <c r="D116" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="E116" s="2">
+        <v>150</v>
+      </c>
+      <c r="F116" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G116" s="2">
+        <v>93</v>
+      </c>
+      <c r="H116" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I116" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J116" s="4">
+        <f t="shared" si="8"/>
+        <v>512.5</v>
+      </c>
+      <c r="K116" s="4">
+        <f t="shared" si="9"/>
+        <v>12.5</v>
+      </c>
+      <c r="L116" s="4">
+        <f t="shared" si="10"/>
+        <v>0.63712588620851773</v>
+      </c>
+      <c r="M116" s="4">
+        <f t="shared" si="11"/>
+        <v>3.4166666666666665</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>150</v>
+      </c>
+      <c r="B117" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C117" s="2">
+        <v>150</v>
+      </c>
+      <c r="D117" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="E117" s="2">
+        <v>150</v>
+      </c>
+      <c r="F117" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G117" s="2">
+        <v>93</v>
+      </c>
+      <c r="H117" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I117" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J117" s="4">
+        <f t="shared" si="8"/>
+        <v>600</v>
+      </c>
+      <c r="K117" s="4">
+        <f t="shared" si="9"/>
+        <v>-75</v>
+      </c>
+      <c r="L117" s="4">
+        <f t="shared" si="10"/>
+        <v>-3.6419909440978966</v>
+      </c>
+      <c r="M117" s="4">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>150</v>
+      </c>
+      <c r="B118" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C118" s="2">
+        <v>50</v>
+      </c>
+      <c r="D118" s="2">
+        <v>3</v>
+      </c>
+      <c r="E118" s="2">
+        <v>150</v>
+      </c>
+      <c r="F118" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G118" s="2">
+        <v>93</v>
+      </c>
+      <c r="H118" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I118" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J118" s="4">
+        <f t="shared" si="8"/>
+        <v>225</v>
+      </c>
+      <c r="K118" s="4">
+        <f t="shared" si="9"/>
+        <v>300</v>
+      </c>
+      <c r="L118" s="4">
+        <f t="shared" si="10"/>
+        <v>17.331793238463025</v>
+      </c>
+      <c r="M118" s="4">
+        <f t="shared" si="11"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>150</v>
+      </c>
+      <c r="B119" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C119" s="2">
+        <v>75</v>
+      </c>
+      <c r="D119" s="2">
+        <v>3</v>
+      </c>
+      <c r="E119" s="2">
+        <v>150</v>
+      </c>
+      <c r="F119" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G119" s="2">
+        <v>93</v>
+      </c>
+      <c r="H119" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I119" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J119" s="4">
+        <f t="shared" si="8"/>
+        <v>300</v>
+      </c>
+      <c r="K119" s="4">
+        <f t="shared" si="9"/>
+        <v>225</v>
+      </c>
+      <c r="L119" s="4">
+        <f t="shared" si="10"/>
+        <v>12.492243719531114</v>
+      </c>
+      <c r="M119" s="4">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>150</v>
+      </c>
+      <c r="B120" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C120" s="2">
+        <v>100</v>
+      </c>
+      <c r="D120" s="2">
+        <v>3</v>
+      </c>
+      <c r="E120" s="2">
+        <v>150</v>
+      </c>
+      <c r="F120" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G120" s="2">
+        <v>93</v>
+      </c>
+      <c r="H120" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I120" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J120" s="4">
+        <f t="shared" si="8"/>
+        <v>375</v>
+      </c>
+      <c r="K120" s="4">
+        <f t="shared" si="9"/>
+        <v>150</v>
+      </c>
+      <c r="L120" s="4">
+        <f t="shared" si="10"/>
+        <v>7.9815127636165686</v>
+      </c>
+      <c r="M120" s="4">
+        <f t="shared" si="11"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>150</v>
+      </c>
+      <c r="B121" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C121" s="2">
+        <v>125</v>
+      </c>
+      <c r="D121" s="2">
+        <v>3</v>
+      </c>
+      <c r="E121" s="2">
+        <v>150</v>
+      </c>
+      <c r="F121" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G121" s="2">
+        <v>93</v>
+      </c>
+      <c r="H121" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I121" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J121" s="4">
+        <f t="shared" si="8"/>
+        <v>450</v>
+      </c>
+      <c r="K121" s="4">
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="L121" s="4">
+        <f t="shared" si="10"/>
+        <v>3.8172549447472539</v>
+      </c>
+      <c r="M121" s="4">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>150</v>
+      </c>
+      <c r="B122" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C122" s="2">
+        <v>150</v>
+      </c>
+      <c r="D122" s="2">
+        <v>3</v>
+      </c>
+      <c r="E122" s="2">
+        <v>150</v>
+      </c>
+      <c r="F122" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G122" s="2">
+        <v>93</v>
+      </c>
+      <c r="H122" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I122" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J122" s="4">
+        <f t="shared" si="8"/>
+        <v>525</v>
+      </c>
+      <c r="K122" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L122" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M122" s="4">
+        <f t="shared" si="11"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>150</v>
+      </c>
+      <c r="B123" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C123" s="2">
+        <v>50</v>
+      </c>
+      <c r="D123" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E123" s="2">
+        <v>150</v>
+      </c>
+      <c r="F123" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G123" s="2">
+        <v>93</v>
+      </c>
+      <c r="H123" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I123" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J123" s="4">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="K123" s="4">
+        <f t="shared" si="9"/>
+        <v>325</v>
+      </c>
+      <c r="L123" s="4">
+        <f t="shared" si="10"/>
+        <v>18.679383716439226</v>
+      </c>
+      <c r="M123" s="4">
+        <f t="shared" si="11"/>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>150</v>
+      </c>
+      <c r="B124" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C124" s="2">
+        <v>75</v>
+      </c>
+      <c r="D124" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E124" s="2">
+        <v>150</v>
+      </c>
+      <c r="F124" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G124" s="2">
+        <v>93</v>
+      </c>
+      <c r="H124" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I124" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J124" s="4">
+        <f t="shared" si="8"/>
+        <v>262.5</v>
+      </c>
+      <c r="K124" s="4">
+        <f t="shared" si="9"/>
+        <v>262.5</v>
+      </c>
+      <c r="L124" s="4">
+        <f t="shared" si="10"/>
+        <v>14.492507875747012</v>
+      </c>
+      <c r="M124" s="4">
+        <f t="shared" si="11"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>150</v>
+      </c>
+      <c r="B125" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C125" s="2">
+        <v>100</v>
+      </c>
+      <c r="D125" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E125" s="2">
+        <v>150</v>
+      </c>
+      <c r="F125" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G125" s="2">
+        <v>93</v>
+      </c>
+      <c r="H125" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I125" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J125" s="4">
+        <f t="shared" si="8"/>
+        <v>325</v>
+      </c>
+      <c r="K125" s="4">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="L125" s="4">
+        <f t="shared" si="10"/>
+        <v>10.589159121635044</v>
+      </c>
+      <c r="M125" s="4">
+        <f t="shared" si="11"/>
+        <v>2.1666666666666665</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>150</v>
+      </c>
+      <c r="B126" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C126" s="2">
+        <v>125</v>
+      </c>
+      <c r="D126" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E126" s="2">
+        <v>150</v>
+      </c>
+      <c r="F126" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G126" s="2">
+        <v>93</v>
+      </c>
+      <c r="H126" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I126" s="4">
+        <f t="shared" si="7"/>
+        <v>525</v>
+      </c>
+      <c r="J126" s="4">
+        <f t="shared" si="8"/>
+        <v>387.5</v>
+      </c>
+      <c r="K126" s="4">
+        <f t="shared" si="9"/>
+        <v>137.5</v>
+      </c>
+      <c r="L126" s="4">
+        <f t="shared" si="10"/>
+        <v>6.9740266135532041</v>
+      </c>
+      <c r="M126" s="4">
+        <f t="shared" si="11"/>
+        <v>2.5833333333333335</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>150</v>
+      </c>
+      <c r="B127" s="4">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="C127" s="2">
+        <v>150</v>
+      </c>
+      <c r="D127" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E127" s="2">
+        <v>150</v>
+      </c>
+      <c r="F127" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G127" s="2">
+        <v>93</v>
+      </c>
+      <c r="H127" s="2">
+        <v>2.17</v>
+      </c>
+      <c r="I127" s="4">
+        <f>A127*B127</f>
+        <v>525</v>
+      </c>
+      <c r="J127" s="4">
+        <f t="shared" si="8"/>
+        <v>450</v>
+      </c>
+      <c r="K127" s="4">
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="L127" s="4">
+        <f>DEGREES(ATAN((A127*B127-C127*D127-E127*F127)/(H127*(A127+C127+E127+G127))))</f>
+        <v>3.6419909440978966</v>
+      </c>
+      <c r="M127" s="4">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="L2:L127">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+      <formula>-7</formula>
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ClimbDocs/climb-balance-2020.xlsx
+++ b/ClimbDocs/climb-balance-2020.xlsx
@@ -45,22 +45,22 @@
     <t>D</t>
   </si>
   <si>
-    <t>One R</t>
-  </si>
-  <si>
-    <t>Two R</t>
-  </si>
-  <si>
     <t>Angle</t>
-  </si>
-  <si>
-    <t>195L</t>
   </si>
   <si>
     <t>delta</t>
   </si>
   <si>
-    <t>Error (+/-)</t>
+    <t>One Robot</t>
+  </si>
+  <si>
+    <t>Two Robots</t>
+  </si>
+  <si>
+    <t>Where robot A should be to balance</t>
+  </si>
+  <si>
+    <t>Angles if we miss the mark by +/- $O$1</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <dimension ref="A1:O127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,7 +424,11 @@
     <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="9.140625" style="4"/>
+    <col min="9" max="9" width="9.140625" style="4"/>
+    <col min="10" max="10" width="12.5703125" style="4" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="4"/>
+    <col min="13" max="13" width="32.5703125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -453,19 +457,19 @@
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>13</v>
@@ -488,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="3">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="F2" s="3">
         <v>2</v>
@@ -505,19 +509,19 @@
       </c>
       <c r="J2" s="4">
         <f>C2*D2+E2*F2</f>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K2" s="4">
         <f>I2-J2</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L2" s="4">
         <f>DEGREES(ATAN((A2*B2-C2*D2-E2*F2)/(H2*(A2+C2+E2+G2))))</f>
-        <v>7.6520165171643892</v>
+        <v>3.5827666022867657</v>
       </c>
       <c r="M2" s="4">
         <f>(C2*D2+E2*F2)/A2</f>
-        <v>1.3333333333333333</v>
+        <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -528,13 +532,13 @@
         <v>3.5</v>
       </c>
       <c r="C3" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D3" s="2">
         <v>4.5</v>
       </c>
       <c r="E3" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F3" s="2">
         <v>0.5</v>
@@ -551,23 +555,23 @@
       </c>
       <c r="J3" s="4">
         <f t="shared" ref="J3:J66" si="1">C3*D3+E3*F3</f>
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="K3" s="4">
         <f t="shared" ref="K3:K66" si="2">I3-J3</f>
-        <v>275</v>
+        <v>-25</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" ref="L3:L66" si="3">DEGREES(ATAN((A3*B3-C3*D3-E3*F3)/(H3*(A3+C3+E3+G3))))</f>
-        <v>20.277744349710314</v>
+        <v>-1.4253854081478812</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" ref="M3:M66" si="4">(C3*D3+E3*F3)/A3</f>
-        <v>1.6666666666666667</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N66" si="5">DEGREES(ATAN((A3*(M3+$O$1)-C3*D3-E3*F3)/(H3*(A3+C3+E3+G3))))</f>
-        <v>8.0297437274815753</v>
+        <f t="shared" ref="N3:N57" si="5">DEGREES(ATAN((A3*(M3+$O$1)-C3*D3-E3*F3)/(H3*(A3+C3+E3+G3))))</f>
+        <v>5.9661962777137525</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -579,13 +583,13 @@
         <v>3.5</v>
       </c>
       <c r="C4" s="2">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="D4" s="2">
         <v>4.5</v>
       </c>
       <c r="E4" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F4" s="2">
         <v>0.5</v>
@@ -602,23 +606,23 @@
       </c>
       <c r="J4" s="4">
         <f t="shared" si="1"/>
-        <v>362.5</v>
+        <v>595</v>
       </c>
       <c r="K4" s="4">
         <f t="shared" si="2"/>
-        <v>162.5</v>
+        <v>-70</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="3"/>
-        <v>11.502144870269609</v>
+        <v>-3.9014660978285671</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="4"/>
-        <v>2.4166666666666665</v>
+        <v>3.9666666666666668</v>
       </c>
       <c r="N4">
         <f t="shared" si="5"/>
-        <v>7.4906607907800984</v>
+        <v>5.8409424548808646</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -630,13 +634,13 @@
         <v>3.5</v>
       </c>
       <c r="C5" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D5" s="2">
         <v>4.5</v>
       </c>
       <c r="E5" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F5" s="2">
         <v>0.5</v>
@@ -653,23 +657,23 @@
       </c>
       <c r="J5" s="4">
         <f t="shared" si="1"/>
-        <v>475</v>
+        <v>640</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>-115</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="3"/>
-        <v>3.3553935969014286</v>
+        <v>-6.2615210311972103</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="4"/>
-        <v>3.1666666666666665</v>
+        <v>4.2666666666666666</v>
       </c>
       <c r="N5">
         <f t="shared" si="5"/>
-        <v>7.019067562474091</v>
+        <v>5.7208224969548862</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -681,13 +685,13 @@
         <v>3.5</v>
       </c>
       <c r="C6" s="2">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D6" s="2">
         <v>4.5</v>
       </c>
       <c r="E6" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F6" s="2">
         <v>0.5</v>
@@ -704,23 +708,23 @@
       </c>
       <c r="J6" s="4">
         <f t="shared" si="1"/>
-        <v>587.5</v>
+        <v>685</v>
       </c>
       <c r="K6" s="4">
         <f t="shared" si="2"/>
-        <v>-62.5</v>
+        <v>-160</v>
       </c>
       <c r="L6" s="4">
         <f t="shared" si="3"/>
-        <v>-3.9416743078951328</v>
+        <v>-8.5060675743046836</v>
       </c>
       <c r="M6" s="4">
         <f t="shared" si="4"/>
-        <v>3.9166666666666665</v>
+        <v>4.5666666666666664</v>
       </c>
       <c r="N6">
         <f t="shared" si="5"/>
-        <v>6.6030902284829098</v>
+        <v>5.6055280987654781</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -738,7 +742,7 @@
         <v>4.5</v>
       </c>
       <c r="E7" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F7" s="2">
         <v>0.5</v>
@@ -755,23 +759,23 @@
       </c>
       <c r="J7" s="4">
         <f t="shared" si="1"/>
-        <v>700</v>
+        <v>730</v>
       </c>
       <c r="K7" s="4">
         <f t="shared" si="2"/>
-        <v>-175</v>
+        <v>-205</v>
       </c>
       <c r="L7" s="4">
         <f t="shared" si="3"/>
-        <v>-10.317328969247406</v>
+        <v>-10.636990589542112</v>
       </c>
       <c r="M7" s="4">
         <f t="shared" si="4"/>
-        <v>4.666666666666667</v>
+        <v>4.8666666666666663</v>
       </c>
       <c r="N7">
         <f t="shared" si="5"/>
-        <v>6.2334753483213428</v>
+        <v>5.4947750814618628</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -783,13 +787,13 @@
         <v>3.5</v>
       </c>
       <c r="C8" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D8" s="2">
         <v>4</v>
       </c>
       <c r="E8" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F8" s="2">
         <v>0.5</v>
@@ -806,19 +810,19 @@
       </c>
       <c r="J8" s="4">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>495</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" si="3"/>
-        <v>21.952286940908817</v>
+        <v>1.7103072726532418</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="4"/>
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -830,13 +834,13 @@
         <v>3.5</v>
       </c>
       <c r="C9" s="2">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="D9" s="2">
         <v>4</v>
       </c>
       <c r="E9" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F9" s="2">
         <v>0.5</v>
@@ -853,19 +857,19 @@
       </c>
       <c r="J9" s="4">
         <f t="shared" si="1"/>
-        <v>325</v>
+        <v>535</v>
       </c>
       <c r="K9" s="4">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>-10</v>
       </c>
       <c r="L9" s="4">
         <f t="shared" si="3"/>
-        <v>14.060551094243079</v>
+        <v>-0.55819766736178156</v>
       </c>
       <c r="M9" s="4">
         <f t="shared" si="4"/>
-        <v>2.1666666666666665</v>
+        <v>3.5666666666666669</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -877,13 +881,13 @@
         <v>3.5</v>
       </c>
       <c r="C10" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D10" s="2">
         <v>4</v>
       </c>
       <c r="E10" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F10" s="2">
         <v>0.5</v>
@@ -900,19 +904,19 @@
       </c>
       <c r="J10" s="4">
         <f t="shared" si="1"/>
-        <v>425</v>
+        <v>575</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>-50</v>
       </c>
       <c r="L10" s="4">
         <f t="shared" si="3"/>
-        <v>6.6879285682641081</v>
+        <v>-2.7312197654971806</v>
       </c>
       <c r="M10" s="4">
         <f t="shared" si="4"/>
-        <v>2.8333333333333335</v>
+        <v>3.8333333333333335</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -924,13 +928,13 @@
         <v>3.5</v>
       </c>
       <c r="C11" s="2">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D11" s="2">
         <v>4</v>
       </c>
       <c r="E11" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F11" s="2">
         <v>0.5</v>
@@ -947,19 +951,19 @@
       </c>
       <c r="J11" s="4">
         <f t="shared" si="1"/>
-        <v>525</v>
+        <v>615</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="L11" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-4.8088038594862832</v>
       </c>
       <c r="M11" s="4">
         <f t="shared" si="4"/>
-        <v>3.5</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -977,7 +981,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F12" s="2">
         <v>0.5</v>
@@ -994,19 +998,19 @@
       </c>
       <c r="J12" s="4">
         <f t="shared" si="1"/>
-        <v>625</v>
+        <v>655</v>
       </c>
       <c r="K12" s="4">
         <f t="shared" si="2"/>
-        <v>-100</v>
+        <v>-130</v>
       </c>
       <c r="L12" s="4">
         <f t="shared" si="3"/>
-        <v>-5.938817080968751</v>
+        <v>-6.7919938115626071</v>
       </c>
       <c r="M12" s="4">
         <f t="shared" si="4"/>
-        <v>4.166666666666667</v>
+        <v>4.3666666666666663</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1018,13 +1022,13 @@
         <v>3.5</v>
       </c>
       <c r="C13" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D13" s="2">
         <v>3.5</v>
       </c>
       <c r="E13" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F13" s="2">
         <v>0.5</v>
@@ -1041,19 +1045,19 @@
       </c>
       <c r="J13" s="4">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>440</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="2"/>
-        <v>325</v>
+        <v>85</v>
       </c>
       <c r="L13" s="4">
         <f t="shared" si="3"/>
-        <v>23.588296257091383</v>
+        <v>4.8357950953783417</v>
       </c>
       <c r="M13" s="4">
         <f t="shared" si="4"/>
-        <v>1.3333333333333333</v>
+        <v>2.9333333333333331</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1065,13 +1069,13 @@
         <v>3.5</v>
       </c>
       <c r="C14" s="2">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="D14" s="2">
         <v>3.5</v>
       </c>
       <c r="E14" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F14" s="2">
         <v>0.5</v>
@@ -1088,19 +1092,19 @@
       </c>
       <c r="J14" s="4">
         <f t="shared" si="1"/>
-        <v>287.5</v>
+        <v>475</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="2"/>
-        <v>237.5</v>
+        <v>50</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="3"/>
-        <v>16.56302201445456</v>
+        <v>2.7888720353491805</v>
       </c>
       <c r="M14" s="4">
         <f t="shared" si="4"/>
-        <v>1.9166666666666667</v>
+        <v>3.1666666666666665</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1112,13 +1116,13 @@
         <v>3.5</v>
       </c>
       <c r="C15" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D15" s="2">
         <v>3.5</v>
       </c>
       <c r="E15" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F15" s="2">
         <v>0.5</v>
@@ -1135,19 +1139,19 @@
       </c>
       <c r="J15" s="4">
         <f t="shared" si="1"/>
-        <v>375</v>
+        <v>510</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" si="3"/>
-        <v>9.97566706381639</v>
+        <v>0.81993113678990914</v>
       </c>
       <c r="M15" s="4">
         <f t="shared" si="4"/>
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1159,13 +1163,13 @@
         <v>3.5</v>
       </c>
       <c r="C16" s="2">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D16" s="2">
         <v>3.5</v>
       </c>
       <c r="E16" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F16" s="2">
         <v>0.5</v>
@@ -1182,19 +1186,19 @@
       </c>
       <c r="J16" s="4">
         <f t="shared" si="1"/>
-        <v>462.5</v>
+        <v>545</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="2"/>
-        <v>62.5</v>
+        <v>-20</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" si="3"/>
-        <v>3.9416743078951328</v>
+        <v>-1.0710145906612079</v>
       </c>
       <c r="M16" s="4">
         <f t="shared" si="4"/>
-        <v>3.0833333333333335</v>
+        <v>3.6333333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1212,7 +1216,7 @@
         <v>3.5</v>
       </c>
       <c r="E17" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F17" s="2">
         <v>0.5</v>
@@ -1229,19 +1233,19 @@
       </c>
       <c r="J17" s="4">
         <f t="shared" si="1"/>
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="2"/>
-        <v>-25</v>
+        <v>-55</v>
       </c>
       <c r="L17" s="4">
         <f t="shared" si="3"/>
-        <v>-1.4897085218550541</v>
+        <v>-2.8846321714293222</v>
       </c>
       <c r="M17" s="4">
         <f t="shared" si="4"/>
-        <v>3.6666666666666665</v>
+        <v>3.8666666666666667</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1253,13 +1257,13 @@
         <v>3.5</v>
       </c>
       <c r="C18" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D18" s="2">
         <v>3</v>
       </c>
       <c r="E18" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F18" s="2">
         <v>0.5</v>
@@ -1276,19 +1280,19 @@
       </c>
       <c r="J18" s="4">
         <f t="shared" si="1"/>
-        <v>175</v>
+        <v>385</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="2"/>
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="L18" s="4">
         <f t="shared" si="3"/>
-        <v>25.184513239714509</v>
+        <v>7.932726216882938</v>
       </c>
       <c r="M18" s="4">
         <f t="shared" si="4"/>
-        <v>1.1666666666666667</v>
+        <v>2.5666666666666669</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1300,13 +1304,13 @@
         <v>3.5</v>
       </c>
       <c r="C19" s="2">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="D19" s="2">
         <v>3</v>
       </c>
       <c r="E19" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F19" s="2">
         <v>0.5</v>
@@ -1323,19 +1327,19 @@
       </c>
       <c r="J19" s="4">
         <f t="shared" si="1"/>
-        <v>250</v>
+        <v>415</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" si="2"/>
-        <v>275</v>
+        <v>110</v>
       </c>
       <c r="L19" s="4">
         <f t="shared" si="3"/>
-        <v>19.00216425885462</v>
+        <v>6.1170212318994732</v>
       </c>
       <c r="M19" s="4">
         <f t="shared" si="4"/>
-        <v>1.6666666666666667</v>
+        <v>2.7666666666666666</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1347,13 +1351,13 @@
         <v>3.5</v>
       </c>
       <c r="C20" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D20" s="2">
         <v>3</v>
       </c>
       <c r="E20" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F20" s="2">
         <v>0.5</v>
@@ -1370,19 +1374,19 @@
       </c>
       <c r="J20" s="4">
         <f t="shared" si="1"/>
-        <v>325</v>
+        <v>445</v>
       </c>
       <c r="K20" s="4">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="L20" s="4">
         <f t="shared" si="3"/>
-        <v>13.198421985499571</v>
+        <v>4.3648013682095481</v>
       </c>
       <c r="M20" s="4">
         <f t="shared" si="4"/>
-        <v>2.1666666666666665</v>
+        <v>2.9666666666666668</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1394,13 +1398,13 @@
         <v>3.5</v>
       </c>
       <c r="C21" s="2">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D21" s="2">
         <v>3</v>
       </c>
       <c r="E21" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F21" s="2">
         <v>0.5</v>
@@ -1417,19 +1421,19 @@
       </c>
       <c r="J21" s="4">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>475</v>
       </c>
       <c r="K21" s="4">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="L21" s="4">
         <f t="shared" si="3"/>
-        <v>7.8463877237141402</v>
+        <v>2.6759011255820697</v>
       </c>
       <c r="M21" s="4">
         <f t="shared" si="4"/>
-        <v>2.6666666666666665</v>
+        <v>3.1666666666666665</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1447,7 +1451,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F22" s="2">
         <v>0.5</v>
@@ -1464,19 +1468,19 @@
       </c>
       <c r="J22" s="4">
         <f t="shared" si="1"/>
-        <v>475</v>
+        <v>505</v>
       </c>
       <c r="K22" s="4">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L22" s="4">
         <f t="shared" si="3"/>
-        <v>2.9774056272558349</v>
+        <v>1.0497268668383377</v>
       </c>
       <c r="M22" s="4">
         <f t="shared" si="4"/>
-        <v>3.1666666666666665</v>
+        <v>3.3666666666666667</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1488,13 +1492,13 @@
         <v>3.5</v>
       </c>
       <c r="C23" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D23" s="2">
         <v>2.5</v>
       </c>
       <c r="E23" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F23" s="2">
         <v>0.5</v>
@@ -1511,19 +1515,19 @@
       </c>
       <c r="J23" s="4">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="K23" s="4">
         <f t="shared" si="2"/>
-        <v>375</v>
+        <v>195</v>
       </c>
       <c r="L23" s="4">
         <f t="shared" si="3"/>
-        <v>26.739985966575009</v>
+        <v>10.983742398518473</v>
       </c>
       <c r="M23" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1535,13 +1539,13 @@
         <v>3.5</v>
       </c>
       <c r="C24" s="2">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="D24" s="2">
         <v>2.5</v>
       </c>
       <c r="E24" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F24" s="2">
         <v>0.5</v>
@@ -1558,19 +1562,19 @@
       </c>
       <c r="J24" s="4">
         <f t="shared" si="1"/>
-        <v>212.5</v>
+        <v>355</v>
       </c>
       <c r="K24" s="4">
         <f t="shared" si="2"/>
-        <v>312.5</v>
+        <v>170</v>
       </c>
       <c r="L24" s="4">
         <f t="shared" si="3"/>
-        <v>21.371866690028394</v>
+        <v>9.404288212222232</v>
       </c>
       <c r="M24" s="4">
         <f t="shared" si="4"/>
-        <v>1.4166666666666667</v>
+        <v>2.3666666666666667</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -1582,13 +1586,13 @@
         <v>3.5</v>
       </c>
       <c r="C25" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D25" s="2">
         <v>2.5</v>
       </c>
       <c r="E25" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F25" s="2">
         <v>0.5</v>
@@ -1605,19 +1609,19 @@
       </c>
       <c r="J25" s="4">
         <f t="shared" si="1"/>
-        <v>275</v>
+        <v>380</v>
       </c>
       <c r="K25" s="4">
         <f t="shared" si="2"/>
-        <v>250</v>
+        <v>145</v>
       </c>
       <c r="L25" s="4">
         <f t="shared" si="3"/>
-        <v>16.338421636685045</v>
+        <v>7.8765459262573225</v>
       </c>
       <c r="M25" s="4">
         <f t="shared" si="4"/>
-        <v>1.8333333333333333</v>
+        <v>2.5333333333333332</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -1629,13 +1633,13 @@
         <v>3.5</v>
       </c>
       <c r="C26" s="2">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D26" s="2">
         <v>2.5</v>
       </c>
       <c r="E26" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F26" s="2">
         <v>0.5</v>
@@ -1652,19 +1656,19 @@
       </c>
       <c r="J26" s="4">
         <f t="shared" si="1"/>
-        <v>337.5</v>
+        <v>405</v>
       </c>
       <c r="K26" s="4">
         <f t="shared" si="2"/>
-        <v>187.5</v>
+        <v>120</v>
       </c>
       <c r="L26" s="4">
         <f t="shared" si="3"/>
-        <v>11.679217512116109</v>
+        <v>6.4000836634244314</v>
       </c>
       <c r="M26" s="4">
         <f t="shared" si="4"/>
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -1682,7 +1686,7 @@
         <v>2.5</v>
       </c>
       <c r="E27" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F27" s="2">
         <v>0.5</v>
@@ -1699,19 +1703,19 @@
       </c>
       <c r="J27" s="4">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="K27" s="4">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="L27" s="4">
         <f t="shared" si="3"/>
-        <v>7.4086528755092393</v>
+        <v>4.9742256798454756</v>
       </c>
       <c r="M27" s="4">
         <f t="shared" si="4"/>
-        <v>2.6666666666666665</v>
+        <v>2.8666666666666667</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -1722,14 +1726,14 @@
         <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
-      <c r="C28" s="1">
-        <v>50</v>
+      <c r="C28" s="2">
+        <v>110</v>
       </c>
       <c r="D28" s="1">
         <v>4.5</v>
       </c>
       <c r="E28" s="1">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F28" s="1">
         <v>0.5</v>
@@ -1746,23 +1750,23 @@
       </c>
       <c r="J28" s="4">
         <f t="shared" si="1"/>
-        <v>262.5</v>
+        <v>555</v>
       </c>
       <c r="K28" s="4">
         <f t="shared" si="2"/>
-        <v>262.5</v>
+        <v>-30</v>
       </c>
       <c r="L28" s="4">
         <f t="shared" si="3"/>
-        <v>18.196557267542094</v>
+        <v>-1.6741693564483588</v>
       </c>
       <c r="M28" s="4">
         <f t="shared" si="4"/>
-        <v>1.75</v>
+        <v>3.7</v>
       </c>
       <c r="N28">
         <f t="shared" si="5"/>
-        <v>7.4906607907801037</v>
+        <v>5.8409424548808646</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -1773,14 +1777,14 @@
         <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
-      <c r="C29" s="1">
-        <v>75</v>
+      <c r="C29" s="2">
+        <v>120</v>
       </c>
       <c r="D29" s="1">
         <v>4.5</v>
       </c>
       <c r="E29" s="1">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F29" s="1">
         <v>0.5</v>
@@ -1797,23 +1801,23 @@
       </c>
       <c r="J29" s="4">
         <f t="shared" si="1"/>
-        <v>375</v>
+        <v>600</v>
       </c>
       <c r="K29" s="4">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>-75</v>
       </c>
       <c r="L29" s="4">
         <f t="shared" si="3"/>
-        <v>9.97566706381639</v>
+        <v>-4.0929591354003598</v>
       </c>
       <c r="M29" s="4">
         <f t="shared" si="4"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N29">
         <f t="shared" si="5"/>
-        <v>7.0190675624740981</v>
+        <v>5.7208224969548862</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -1824,14 +1828,14 @@
         <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
-      <c r="C30" s="1">
-        <v>100</v>
+      <c r="C30" s="2">
+        <v>130</v>
       </c>
       <c r="D30" s="1">
         <v>4.5</v>
       </c>
       <c r="E30" s="1">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F30" s="1">
         <v>0.5</v>
@@ -1848,23 +1852,23 @@
       </c>
       <c r="J30" s="4">
         <f t="shared" si="1"/>
-        <v>487.5</v>
+        <v>645</v>
       </c>
       <c r="K30" s="4">
         <f t="shared" si="2"/>
-        <v>37.5</v>
+        <v>-120</v>
       </c>
       <c r="L30" s="4">
         <f t="shared" si="3"/>
-        <v>2.3673945140775086</v>
+        <v>-6.4000836634244314</v>
       </c>
       <c r="M30" s="4">
         <f t="shared" si="4"/>
-        <v>3.25</v>
+        <v>4.3</v>
       </c>
       <c r="N30">
         <f t="shared" si="5"/>
-        <v>6.6030902284829169</v>
+        <v>5.6055280987654781</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -1875,14 +1879,14 @@
         <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
-      <c r="C31" s="1">
-        <v>125</v>
+      <c r="C31" s="2">
+        <v>140</v>
       </c>
       <c r="D31" s="1">
         <v>4.5</v>
       </c>
       <c r="E31" s="1">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F31" s="1">
         <v>0.5</v>
@@ -1899,23 +1903,23 @@
       </c>
       <c r="J31" s="4">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>690</v>
       </c>
       <c r="K31" s="4">
         <f t="shared" si="2"/>
-        <v>-75</v>
+        <v>-165</v>
       </c>
       <c r="L31" s="4">
         <f t="shared" si="3"/>
-        <v>-4.4610961472149535</v>
+        <v>-8.596132230227548</v>
       </c>
       <c r="M31" s="4">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="N31">
         <f t="shared" si="5"/>
-        <v>6.2334753483213357</v>
+        <v>5.4947750814618628</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -1926,14 +1930,14 @@
         <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="2">
         <v>150</v>
       </c>
       <c r="D32" s="1">
         <v>4.5</v>
       </c>
       <c r="E32" s="1">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F32" s="1">
         <v>0.5</v>
@@ -1950,23 +1954,23 @@
       </c>
       <c r="J32" s="4">
         <f t="shared" si="1"/>
-        <v>712.5</v>
+        <v>735</v>
       </c>
       <c r="K32" s="4">
         <f t="shared" si="2"/>
-        <v>-187.5</v>
+        <v>-210</v>
       </c>
       <c r="L32" s="4">
         <f t="shared" si="3"/>
-        <v>-10.460563792481413</v>
+        <v>-10.682943154815675</v>
       </c>
       <c r="M32" s="4">
         <f t="shared" si="4"/>
-        <v>4.75</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="N32">
         <f t="shared" si="5"/>
-        <v>5.9029073526545588</v>
+        <v>5.3883010848437261</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1977,14 +1981,14 @@
         <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
-      <c r="C33" s="1">
-        <v>50</v>
+      <c r="C33" s="2">
+        <v>110</v>
       </c>
       <c r="D33" s="1">
         <v>4</v>
       </c>
       <c r="E33" s="1">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F33" s="1">
         <v>0.5</v>
@@ -2001,19 +2005,19 @@
       </c>
       <c r="J33" s="4">
         <f t="shared" si="1"/>
-        <v>237.5</v>
+        <v>500</v>
       </c>
       <c r="K33" s="4">
         <f t="shared" si="2"/>
-        <v>287.5</v>
+        <v>25</v>
       </c>
       <c r="L33" s="4">
         <f t="shared" si="3"/>
-        <v>19.800045059869248</v>
+        <v>1.3952624509305374</v>
       </c>
       <c r="M33" s="4">
         <f t="shared" si="4"/>
-        <v>1.5833333333333333</v>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2024,14 +2028,14 @@
         <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
-      <c r="C34" s="1">
-        <v>75</v>
+      <c r="C34" s="2">
+        <v>120</v>
       </c>
       <c r="D34" s="1">
         <v>4</v>
       </c>
       <c r="E34" s="1">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F34" s="1">
         <v>0.5</v>
@@ -2048,19 +2052,19 @@
       </c>
       <c r="J34" s="4">
         <f t="shared" si="1"/>
-        <v>337.5</v>
+        <v>540</v>
       </c>
       <c r="K34" s="4">
         <f t="shared" si="2"/>
-        <v>187.5</v>
+        <v>-15</v>
       </c>
       <c r="L34" s="4">
         <f t="shared" si="3"/>
-        <v>12.399843687793796</v>
+        <v>-0.81993113678990914</v>
       </c>
       <c r="M34" s="4">
         <f t="shared" si="4"/>
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2071,14 +2075,14 @@
         <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
-      <c r="C35" s="1">
-        <v>100</v>
+      <c r="C35" s="2">
+        <v>130</v>
       </c>
       <c r="D35" s="1">
         <v>4</v>
       </c>
       <c r="E35" s="1">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F35" s="1">
         <v>0.5</v>
@@ -2095,19 +2099,19 @@
       </c>
       <c r="J35" s="4">
         <f t="shared" si="1"/>
-        <v>437.5</v>
+        <v>580</v>
       </c>
       <c r="K35" s="4">
         <f t="shared" si="2"/>
-        <v>87.5</v>
+        <v>-55</v>
       </c>
       <c r="L35" s="4">
         <f t="shared" si="3"/>
-        <v>5.5100171241949178</v>
+        <v>-2.9430421341376376</v>
       </c>
       <c r="M35" s="4">
         <f t="shared" si="4"/>
-        <v>2.9166666666666665</v>
+        <v>3.8666666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2118,14 +2122,14 @@
         <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
-      <c r="C36" s="1">
-        <v>125</v>
+      <c r="C36" s="2">
+        <v>140</v>
       </c>
       <c r="D36" s="1">
         <v>4</v>
       </c>
       <c r="E36" s="1">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F36" s="1">
         <v>0.5</v>
@@ -2142,19 +2146,19 @@
       </c>
       <c r="J36" s="4">
         <f t="shared" si="1"/>
-        <v>537.5</v>
+        <v>620</v>
       </c>
       <c r="K36" s="4">
         <f t="shared" si="2"/>
-        <v>-12.5</v>
+        <v>-95</v>
       </c>
       <c r="L36" s="4">
         <f t="shared" si="3"/>
-        <v>-0.74498016566015568</v>
+        <v>-4.9742256798454756</v>
       </c>
       <c r="M36" s="4">
         <f t="shared" si="4"/>
-        <v>3.5833333333333335</v>
+        <v>4.1333333333333337</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2165,14 +2169,14 @@
         <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="2">
         <v>150</v>
       </c>
       <c r="D37" s="1">
         <v>4</v>
       </c>
       <c r="E37" s="1">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F37" s="1">
         <v>0.5</v>
@@ -2189,19 +2193,19 @@
       </c>
       <c r="J37" s="4">
         <f t="shared" si="1"/>
-        <v>637.5</v>
+        <v>660</v>
       </c>
       <c r="K37" s="4">
         <f t="shared" si="2"/>
-        <v>-112.5</v>
+        <v>-135</v>
       </c>
       <c r="L37" s="4">
         <f t="shared" si="3"/>
-        <v>-6.3212428865785339</v>
+        <v>-6.9145471940331307</v>
       </c>
       <c r="M37" s="4">
         <f t="shared" si="4"/>
-        <v>4.25</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2212,14 +2216,14 @@
         <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
-      <c r="C38" s="1">
-        <v>50</v>
+      <c r="C38" s="2">
+        <v>110</v>
       </c>
       <c r="D38" s="1">
         <v>3.5</v>
       </c>
       <c r="E38" s="1">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F38" s="1">
         <v>0.5</v>
@@ -2236,19 +2240,19 @@
       </c>
       <c r="J38" s="4">
         <f t="shared" si="1"/>
-        <v>212.5</v>
+        <v>445</v>
       </c>
       <c r="K38" s="4">
         <f t="shared" si="2"/>
-        <v>312.5</v>
+        <v>80</v>
       </c>
       <c r="L38" s="4">
         <f t="shared" si="3"/>
-        <v>21.371866690028394</v>
+        <v>4.456712524419788</v>
       </c>
       <c r="M38" s="4">
         <f t="shared" si="4"/>
-        <v>1.4166666666666667</v>
+        <v>2.9666666666666668</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2259,14 +2263,14 @@
         <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
-      <c r="C39" s="1">
-        <v>75</v>
+      <c r="C39" s="2">
+        <v>120</v>
       </c>
       <c r="D39" s="1">
         <v>3.5</v>
       </c>
       <c r="E39" s="1">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F39" s="1">
         <v>0.5</v>
@@ -2283,19 +2287,19 @@
       </c>
       <c r="J39" s="4">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="K39" s="4">
         <f t="shared" si="2"/>
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="L39" s="4">
         <f t="shared" si="3"/>
-        <v>14.779768664141997</v>
+        <v>2.4584514722922575</v>
       </c>
       <c r="M39" s="4">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2306,14 +2310,14 @@
         <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
-      <c r="C40" s="1">
-        <v>100</v>
+      <c r="C40" s="2">
+        <v>130</v>
       </c>
       <c r="D40" s="1">
         <v>3.5</v>
       </c>
       <c r="E40" s="1">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F40" s="1">
         <v>0.5</v>
@@ -2330,19 +2334,19 @@
       </c>
       <c r="J40" s="4">
         <f t="shared" si="1"/>
-        <v>387.5</v>
+        <v>515</v>
       </c>
       <c r="K40" s="4">
         <f t="shared" si="2"/>
-        <v>137.5</v>
+        <v>10</v>
       </c>
       <c r="L40" s="4">
         <f t="shared" si="3"/>
-        <v>8.6197647334380605</v>
+        <v>0.53555407841470937</v>
       </c>
       <c r="M40" s="4">
         <f t="shared" si="4"/>
-        <v>2.5833333333333335</v>
+        <v>3.4333333333333331</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2353,14 +2357,14 @@
         <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
-      <c r="C41" s="1">
-        <v>125</v>
+      <c r="C41" s="2">
+        <v>140</v>
       </c>
       <c r="D41" s="1">
         <v>3.5</v>
       </c>
       <c r="E41" s="1">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F41" s="1">
         <v>0.5</v>
@@ -2377,19 +2381,19 @@
       </c>
       <c r="J41" s="4">
         <f t="shared" si="1"/>
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="K41" s="4">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>-25</v>
       </c>
       <c r="L41" s="4">
         <f t="shared" si="3"/>
-        <v>2.9774056272558349</v>
+        <v>-1.3120760146265682</v>
       </c>
       <c r="M41" s="4">
         <f t="shared" si="4"/>
-        <v>3.1666666666666665</v>
+        <v>3.6666666666666665</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2400,14 +2404,14 @@
         <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="2">
         <v>150</v>
       </c>
       <c r="D42" s="1">
         <v>3.5</v>
       </c>
       <c r="E42" s="1">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F42" s="1">
         <v>0.5</v>
@@ -2424,19 +2428,19 @@
       </c>
       <c r="J42" s="4">
         <f t="shared" si="1"/>
-        <v>562.5</v>
+        <v>585</v>
       </c>
       <c r="K42" s="4">
         <f t="shared" si="2"/>
-        <v>-37.5</v>
+        <v>-60</v>
       </c>
       <c r="L42" s="4">
         <f t="shared" si="3"/>
-        <v>-2.1147110987155942</v>
+        <v>-3.085153438868816</v>
       </c>
       <c r="M42" s="4">
         <f t="shared" si="4"/>
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2447,14 +2451,14 @@
         <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
-      <c r="C43" s="1">
-        <v>50</v>
+      <c r="C43" s="2">
+        <v>110</v>
       </c>
       <c r="D43" s="1">
         <v>3</v>
       </c>
       <c r="E43" s="1">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F43" s="1">
         <v>0.5</v>
@@ -2471,19 +2475,19 @@
       </c>
       <c r="J43" s="4">
         <f t="shared" si="1"/>
-        <v>187.5</v>
+        <v>390</v>
       </c>
       <c r="K43" s="4">
         <f t="shared" si="2"/>
-        <v>337.5</v>
+        <v>135</v>
       </c>
       <c r="L43" s="4">
         <f t="shared" si="3"/>
-        <v>22.910657004321976</v>
+        <v>7.4928974443827139</v>
       </c>
       <c r="M43" s="4">
         <f t="shared" si="4"/>
-        <v>1.25</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2494,14 +2498,14 @@
         <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
-      <c r="C44" s="1">
-        <v>75</v>
+      <c r="C44" s="2">
+        <v>120</v>
       </c>
       <c r="D44" s="1">
         <v>3</v>
       </c>
       <c r="E44" s="1">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F44" s="1">
         <v>0.5</v>
@@ -2518,19 +2522,19 @@
       </c>
       <c r="J44" s="4">
         <f t="shared" si="1"/>
-        <v>262.5</v>
+        <v>420</v>
       </c>
       <c r="K44" s="4">
         <f t="shared" si="2"/>
-        <v>262.5</v>
+        <v>105</v>
       </c>
       <c r="L44" s="4">
         <f t="shared" si="3"/>
-        <v>17.108677348195926</v>
+        <v>5.7208224969548862</v>
       </c>
       <c r="M44" s="4">
         <f t="shared" si="4"/>
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2541,14 +2545,14 @@
         <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
-      <c r="C45" s="1">
-        <v>100</v>
+      <c r="C45" s="2">
+        <v>130</v>
       </c>
       <c r="D45" s="1">
         <v>3</v>
       </c>
       <c r="E45" s="1">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F45" s="1">
         <v>0.5</v>
@@ -2565,19 +2569,19 @@
       </c>
       <c r="J45" s="4">
         <f t="shared" si="1"/>
-        <v>337.5</v>
+        <v>450</v>
       </c>
       <c r="K45" s="4">
         <f t="shared" si="2"/>
-        <v>187.5</v>
+        <v>75</v>
       </c>
       <c r="L45" s="4">
         <f t="shared" si="3"/>
-        <v>11.679217512116109</v>
+        <v>4.0102113123303189</v>
       </c>
       <c r="M45" s="4">
         <f t="shared" si="4"/>
-        <v>2.25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2588,14 +2592,14 @@
         <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
-      <c r="C46" s="1">
-        <v>125</v>
+      <c r="C46" s="2">
+        <v>140</v>
       </c>
       <c r="D46" s="1">
         <v>3</v>
       </c>
       <c r="E46" s="1">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F46" s="1">
         <v>0.5</v>
@@ -2612,19 +2616,19 @@
       </c>
       <c r="J46" s="4">
         <f t="shared" si="1"/>
-        <v>412.5</v>
+        <v>480</v>
       </c>
       <c r="K46" s="4">
         <f t="shared" si="2"/>
-        <v>112.5</v>
+        <v>45</v>
       </c>
       <c r="L46" s="4">
         <f t="shared" si="3"/>
-        <v>6.6748380894071477</v>
+        <v>2.3608128102214905</v>
       </c>
       <c r="M46" s="4">
         <f t="shared" si="4"/>
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2635,14 +2639,14 @@
         <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="2">
         <v>150</v>
       </c>
       <c r="D47" s="1">
         <v>3</v>
       </c>
       <c r="E47" s="1">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F47" s="1">
         <v>0.5</v>
@@ -2659,19 +2663,19 @@
       </c>
       <c r="J47" s="4">
         <f t="shared" si="1"/>
-        <v>487.5</v>
+        <v>510</v>
       </c>
       <c r="K47" s="4">
         <f t="shared" si="2"/>
-        <v>37.5</v>
+        <v>15</v>
       </c>
       <c r="L47" s="4">
         <f t="shared" si="3"/>
-        <v>2.1147110987155942</v>
+        <v>0.77198793064879456</v>
       </c>
       <c r="M47" s="4">
         <f t="shared" si="4"/>
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2682,14 +2686,14 @@
         <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
-      <c r="C48" s="1">
-        <v>50</v>
+      <c r="C48" s="2">
+        <v>110</v>
       </c>
       <c r="D48" s="1">
         <v>2.5</v>
       </c>
       <c r="E48" s="1">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F48" s="1">
         <v>0.5</v>
@@ -2706,19 +2710,19 @@
       </c>
       <c r="J48" s="4">
         <f t="shared" si="1"/>
-        <v>162.5</v>
+        <v>335</v>
       </c>
       <c r="K48" s="4">
         <f t="shared" si="2"/>
-        <v>362.5</v>
+        <v>190</v>
       </c>
       <c r="L48" s="4">
         <f t="shared" si="3"/>
-        <v>24.415297863416487</v>
+        <v>10.487379183738867</v>
       </c>
       <c r="M48" s="4">
         <f t="shared" si="4"/>
-        <v>1.0833333333333333</v>
+        <v>2.2333333333333334</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -2729,14 +2733,14 @@
         <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
-      <c r="C49" s="1">
-        <v>75</v>
+      <c r="C49" s="2">
+        <v>120</v>
       </c>
       <c r="D49" s="1">
         <v>2.5</v>
       </c>
       <c r="E49" s="1">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F49" s="1">
         <v>0.5</v>
@@ -2753,19 +2757,19 @@
       </c>
       <c r="J49" s="4">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>360</v>
       </c>
       <c r="K49" s="4">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>165</v>
       </c>
       <c r="L49" s="4">
         <f t="shared" si="3"/>
-        <v>19.380762516811583</v>
+        <v>8.946433894612543</v>
       </c>
       <c r="M49" s="4">
         <f t="shared" si="4"/>
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -2776,14 +2780,14 @@
         <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
-      <c r="C50" s="1">
-        <v>100</v>
+      <c r="C50" s="2">
+        <v>130</v>
       </c>
       <c r="D50" s="1">
         <v>2.5</v>
       </c>
       <c r="E50" s="1">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F50" s="1">
         <v>0.5</v>
@@ -2800,19 +2804,19 @@
       </c>
       <c r="J50" s="4">
         <f t="shared" si="1"/>
-        <v>287.5</v>
+        <v>385</v>
       </c>
       <c r="K50" s="4">
         <f t="shared" si="2"/>
-        <v>237.5</v>
+        <v>140</v>
       </c>
       <c r="L50" s="4">
         <f t="shared" si="3"/>
-        <v>14.672649328994595</v>
+        <v>7.455607815629592</v>
       </c>
       <c r="M50" s="4">
         <f t="shared" si="4"/>
-        <v>1.9166666666666667</v>
+        <v>2.5666666666666669</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -2823,14 +2827,14 @@
         <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
-      <c r="C51" s="1">
-        <v>125</v>
+      <c r="C51" s="2">
+        <v>140</v>
       </c>
       <c r="D51" s="1">
         <v>2.5</v>
       </c>
       <c r="E51" s="1">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F51" s="1">
         <v>0.5</v>
@@ -2847,19 +2851,19 @@
       </c>
       <c r="J51" s="4">
         <f t="shared" si="1"/>
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="K51" s="4">
         <f t="shared" si="2"/>
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="L51" s="4">
         <f t="shared" si="3"/>
-        <v>10.317328969247406</v>
+        <v>6.0144161973854642</v>
       </c>
       <c r="M51" s="4">
         <f t="shared" si="4"/>
-        <v>2.3333333333333335</v>
+        <v>2.7333333333333334</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -2870,14 +2874,14 @@
         <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="2">
         <v>150</v>
       </c>
       <c r="D52" s="1">
         <v>2.5</v>
       </c>
       <c r="E52" s="1">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F52" s="1">
         <v>0.5</v>
@@ -2894,19 +2898,19 @@
       </c>
       <c r="J52" s="4">
         <f t="shared" si="1"/>
-        <v>412.5</v>
+        <v>435</v>
       </c>
       <c r="K52" s="4">
         <f t="shared" si="2"/>
-        <v>112.5</v>
+        <v>90</v>
       </c>
       <c r="L52" s="4">
         <f t="shared" si="3"/>
-        <v>6.3212428865785339</v>
+        <v>4.6221548230345606</v>
       </c>
       <c r="M52" s="4">
         <f t="shared" si="4"/>
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -2918,13 +2922,13 @@
         <v>3.5</v>
       </c>
       <c r="C53" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D53" s="2">
         <v>4.5</v>
       </c>
       <c r="E53" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F53" s="2">
         <v>0.5</v>
@@ -2941,23 +2945,23 @@
       </c>
       <c r="J53" s="4">
         <f t="shared" si="1"/>
-        <v>275</v>
+        <v>560</v>
       </c>
       <c r="K53" s="4">
         <f t="shared" si="2"/>
-        <v>250</v>
+        <v>-35</v>
       </c>
       <c r="L53" s="4">
         <f t="shared" si="3"/>
-        <v>16.338421636685045</v>
+        <v>-1.9125925496211493</v>
       </c>
       <c r="M53" s="4">
         <f t="shared" si="4"/>
-        <v>1.8333333333333333</v>
+        <v>3.7333333333333334</v>
       </c>
       <c r="N53">
         <f t="shared" si="5"/>
-        <v>7.0190675624740981</v>
+        <v>5.7208224969548862</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -2969,13 +2973,13 @@
         <v>3.5</v>
       </c>
       <c r="C54" s="2">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="D54" s="2">
         <v>4.5</v>
       </c>
       <c r="E54" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F54" s="2">
         <v>0.5</v>
@@ -2992,23 +2996,23 @@
       </c>
       <c r="J54" s="4">
         <f t="shared" si="1"/>
-        <v>387.5</v>
+        <v>605</v>
       </c>
       <c r="K54" s="4">
         <f t="shared" si="2"/>
-        <v>137.5</v>
+        <v>-80</v>
       </c>
       <c r="L54" s="4">
         <f t="shared" si="3"/>
-        <v>8.6197647334380605</v>
+        <v>-4.2765976918533886</v>
       </c>
       <c r="M54" s="4">
         <f t="shared" si="4"/>
-        <v>2.5833333333333335</v>
+        <v>4.0333333333333332</v>
       </c>
       <c r="N54">
         <f t="shared" si="5"/>
-        <v>6.6030902284829169</v>
+        <v>5.6055280987654781</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -3020,13 +3024,13 @@
         <v>3.5</v>
       </c>
       <c r="C55" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D55" s="2">
         <v>4.5</v>
       </c>
       <c r="E55" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F55" s="2">
         <v>0.5</v>
@@ -3043,23 +3047,23 @@
       </c>
       <c r="J55" s="4">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="K55" s="4">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>-125</v>
       </c>
       <c r="L55" s="4">
         <f t="shared" si="3"/>
-        <v>1.4897085218550541</v>
+        <v>-6.5330661540269848</v>
       </c>
       <c r="M55" s="4">
         <f t="shared" si="4"/>
-        <v>3.3333333333333335</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="N55">
         <f t="shared" si="5"/>
-        <v>6.2334753483213357</v>
+        <v>5.4947750814618628</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -3071,13 +3075,13 @@
         <v>3.5</v>
       </c>
       <c r="C56" s="2">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D56" s="2">
         <v>4.5</v>
       </c>
       <c r="E56" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F56" s="2">
         <v>0.5</v>
@@ -3094,23 +3098,23 @@
       </c>
       <c r="J56" s="4">
         <f t="shared" si="1"/>
-        <v>612.5</v>
+        <v>695</v>
       </c>
       <c r="K56" s="4">
         <f t="shared" si="2"/>
-        <v>-87.5</v>
+        <v>-170</v>
       </c>
       <c r="L56" s="4">
         <f t="shared" si="3"/>
-        <v>-4.9244064047338068</v>
+        <v>-8.6826452855236766</v>
       </c>
       <c r="M56" s="4">
         <f t="shared" si="4"/>
-        <v>4.083333333333333</v>
+        <v>4.6333333333333337</v>
       </c>
       <c r="N56">
         <f t="shared" si="5"/>
-        <v>5.9029073526545588</v>
+        <v>5.3883010848437261</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -3128,7 +3132,7 @@
         <v>4.5</v>
       </c>
       <c r="E57" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F57" s="2">
         <v>0.5</v>
@@ -3145,23 +3149,23 @@
       </c>
       <c r="J57" s="4">
         <f t="shared" si="1"/>
-        <v>725</v>
+        <v>740</v>
       </c>
       <c r="K57" s="4">
         <f t="shared" si="2"/>
-        <v>-200</v>
+        <v>-215</v>
       </c>
       <c r="L57" s="4">
         <f t="shared" si="3"/>
-        <v>-10.589159121635044</v>
+        <v>-10.727125338924639</v>
       </c>
       <c r="M57" s="4">
         <f t="shared" si="4"/>
-        <v>4.833333333333333</v>
+        <v>4.9333333333333336</v>
       </c>
       <c r="N57">
         <f t="shared" si="5"/>
-        <v>5.6055280987654781</v>
+        <v>5.2858635188183314</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -3173,13 +3177,13 @@
         <v>3.5</v>
       </c>
       <c r="C58" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D58" s="2">
         <v>4</v>
       </c>
       <c r="E58" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F58" s="2">
         <v>0.5</v>
@@ -3196,19 +3200,19 @@
       </c>
       <c r="J58" s="4">
         <f t="shared" si="1"/>
-        <v>250</v>
+        <v>505</v>
       </c>
       <c r="K58" s="4">
         <f t="shared" si="2"/>
-        <v>275</v>
+        <v>20</v>
       </c>
       <c r="L58" s="4">
         <f t="shared" si="3"/>
-        <v>17.872611138397193</v>
+        <v>1.0931834793022983</v>
       </c>
       <c r="M58" s="4">
         <f t="shared" si="4"/>
-        <v>1.6666666666666667</v>
+        <v>3.3666666666666667</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -3220,13 +3224,13 @@
         <v>3.5</v>
       </c>
       <c r="C59" s="2">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="D59" s="2">
         <v>4</v>
       </c>
       <c r="E59" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F59" s="2">
         <v>0.5</v>
@@ -3243,19 +3247,19 @@
       </c>
       <c r="J59" s="4">
         <f t="shared" si="1"/>
-        <v>350</v>
+        <v>545</v>
       </c>
       <c r="K59" s="4">
         <f t="shared" si="2"/>
-        <v>175</v>
+        <v>-20</v>
       </c>
       <c r="L59" s="4">
         <f t="shared" si="3"/>
-        <v>10.91996276376957</v>
+        <v>-1.0710145906612079</v>
       </c>
       <c r="M59" s="4">
         <f t="shared" si="4"/>
-        <v>2.3333333333333335</v>
+        <v>3.6333333333333333</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -3267,13 +3271,13 @@
         <v>3.5</v>
       </c>
       <c r="C60" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D60" s="2">
         <v>4</v>
       </c>
       <c r="E60" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F60" s="2">
         <v>0.5</v>
@@ -3290,19 +3294,19 @@
       </c>
       <c r="J60" s="4">
         <f t="shared" si="1"/>
-        <v>450</v>
+        <v>585</v>
       </c>
       <c r="K60" s="4">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>-60</v>
       </c>
       <c r="L60" s="4">
         <f t="shared" si="3"/>
-        <v>4.4610961472149535</v>
+        <v>-3.1463664610754121</v>
       </c>
       <c r="M60" s="4">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -3314,13 +3318,13 @@
         <v>3.5</v>
       </c>
       <c r="C61" s="2">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D61" s="2">
         <v>4</v>
       </c>
       <c r="E61" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F61" s="2">
         <v>0.5</v>
@@ -3337,19 +3341,19 @@
       </c>
       <c r="J61" s="4">
         <f t="shared" si="1"/>
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="K61" s="4">
         <f t="shared" si="2"/>
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="L61" s="4">
         <f t="shared" si="3"/>
-        <v>-1.4101631137671322</v>
+        <v>-5.1331200415746396</v>
       </c>
       <c r="M61" s="4">
         <f t="shared" si="4"/>
-        <v>3.6666666666666665</v>
+        <v>4.166666666666667</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -3367,7 +3371,7 @@
         <v>4</v>
       </c>
       <c r="E62" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F62" s="2">
         <v>0.5</v>
@@ -3384,19 +3388,19 @@
       </c>
       <c r="J62" s="4">
         <f t="shared" si="1"/>
-        <v>650</v>
+        <v>665</v>
       </c>
       <c r="K62" s="4">
         <f t="shared" si="2"/>
-        <v>-125</v>
+        <v>-140</v>
       </c>
       <c r="L62" s="4">
         <f t="shared" si="3"/>
-        <v>-6.6644023785753674</v>
+        <v>-7.0323540881026751</v>
       </c>
       <c r="M62" s="4">
         <f t="shared" si="4"/>
-        <v>4.333333333333333</v>
+        <v>4.4333333333333336</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -3408,13 +3412,13 @@
         <v>3.5</v>
       </c>
       <c r="C63" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D63" s="2">
         <v>3.5</v>
       </c>
       <c r="E63" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F63" s="2">
         <v>0.5</v>
@@ -3431,19 +3435,19 @@
       </c>
       <c r="J63" s="4">
         <f t="shared" si="1"/>
-        <v>225</v>
+        <v>450</v>
       </c>
       <c r="K63" s="4">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="L63" s="4">
         <f t="shared" si="3"/>
-        <v>19.380762516811583</v>
+        <v>4.0929591354003598</v>
       </c>
       <c r="M63" s="4">
         <f t="shared" si="4"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -3455,13 +3459,13 @@
         <v>3.5</v>
       </c>
       <c r="C64" s="2">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="D64" s="2">
         <v>3.5</v>
       </c>
       <c r="E64" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F64" s="2">
         <v>0.5</v>
@@ -3478,19 +3482,19 @@
       </c>
       <c r="J64" s="4">
         <f t="shared" si="1"/>
-        <v>312.5</v>
+        <v>485</v>
       </c>
       <c r="K64" s="4">
         <f t="shared" si="2"/>
-        <v>212.5</v>
+        <v>40</v>
       </c>
       <c r="L64" s="4">
         <f t="shared" si="3"/>
-        <v>13.185090647848201</v>
+        <v>2.1412812399843366</v>
       </c>
       <c r="M64" s="4">
         <f t="shared" si="4"/>
-        <v>2.0833333333333335</v>
+        <v>3.2333333333333334</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -3502,13 +3506,13 @@
         <v>3.5</v>
       </c>
       <c r="C65" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D65" s="2">
         <v>3.5</v>
       </c>
       <c r="E65" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F65" s="2">
         <v>0.5</v>
@@ -3525,19 +3529,19 @@
       </c>
       <c r="J65" s="4">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="K65" s="4">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="L65" s="4">
         <f t="shared" si="3"/>
-        <v>7.4086528755092393</v>
+        <v>0.26245924799896186</v>
       </c>
       <c r="M65" s="4">
         <f t="shared" si="4"/>
-        <v>2.6666666666666665</v>
+        <v>3.4666666666666668</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -3549,13 +3553,13 @@
         <v>3.5</v>
       </c>
       <c r="C66" s="2">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D66" s="2">
         <v>3.5</v>
       </c>
       <c r="E66" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F66" s="2">
         <v>0.5</v>
@@ -3572,19 +3576,19 @@
       </c>
       <c r="J66" s="4">
         <f t="shared" si="1"/>
-        <v>487.5</v>
+        <v>555</v>
       </c>
       <c r="K66" s="4">
         <f t="shared" si="2"/>
-        <v>37.5</v>
+        <v>-30</v>
       </c>
       <c r="L66" s="4">
         <f t="shared" si="3"/>
-        <v>2.1147110987155942</v>
+        <v>-1.5436956674359013</v>
       </c>
       <c r="M66" s="4">
         <f t="shared" si="4"/>
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -3602,7 +3606,7 @@
         <v>3.5</v>
       </c>
       <c r="E67" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F67" s="2">
         <v>0.5</v>
@@ -3619,19 +3623,19 @@
       </c>
       <c r="J67" s="4">
         <f t="shared" ref="J67:J127" si="8">C67*D67+E67*F67</f>
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="K67" s="4">
         <f t="shared" ref="K67:K127" si="9">I67-J67</f>
-        <v>-50</v>
+        <v>-65</v>
       </c>
       <c r="L67" s="4">
         <f t="shared" ref="L67:L126" si="10">DEGREES(ATAN((A67*B67-C67*D67-E67*F67)/(H67*(A67+C67+E67+G67))))</f>
-        <v>-2.6759011255820697</v>
+        <v>-3.2779353098470785</v>
       </c>
       <c r="M67" s="4">
         <f t="shared" ref="M67:M127" si="11">(C67*D67+E67*F67)/A67</f>
-        <v>3.8333333333333335</v>
+        <v>3.9333333333333331</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -3643,13 +3647,13 @@
         <v>3.5</v>
       </c>
       <c r="C68" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D68" s="2">
         <v>3</v>
       </c>
       <c r="E68" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F68" s="2">
         <v>0.5</v>
@@ -3666,19 +3670,19 @@
       </c>
       <c r="J68" s="4">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>395</v>
       </c>
       <c r="K68" s="4">
         <f t="shared" si="9"/>
-        <v>325</v>
+        <v>130</v>
       </c>
       <c r="L68" s="4">
         <f t="shared" si="10"/>
-        <v>20.861498133841614</v>
+        <v>7.0704449830879188</v>
       </c>
       <c r="M68" s="4">
         <f t="shared" si="11"/>
-        <v>1.3333333333333333</v>
+        <v>2.6333333333333333</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -3690,13 +3694,13 @@
         <v>3.5</v>
       </c>
       <c r="C69" s="2">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="D69" s="2">
         <v>3</v>
       </c>
       <c r="E69" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F69" s="2">
         <v>0.5</v>
@@ -3713,19 +3717,19 @@
       </c>
       <c r="J69" s="4">
         <f t="shared" si="8"/>
-        <v>275</v>
+        <v>425</v>
       </c>
       <c r="K69" s="4">
         <f t="shared" si="9"/>
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="L69" s="4">
         <f t="shared" si="10"/>
-        <v>15.40904419967104</v>
+        <v>5.3401795792825837</v>
       </c>
       <c r="M69" s="4">
         <f t="shared" si="11"/>
-        <v>1.8333333333333333</v>
+        <v>2.8333333333333335</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -3737,13 +3741,13 @@
         <v>3.5</v>
       </c>
       <c r="C70" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D70" s="2">
         <v>3</v>
       </c>
       <c r="E70" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F70" s="2">
         <v>0.5</v>
@@ -3760,19 +3764,19 @@
       </c>
       <c r="J70" s="4">
         <f t="shared" si="8"/>
-        <v>350</v>
+        <v>455</v>
       </c>
       <c r="K70" s="4">
         <f t="shared" si="9"/>
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="L70" s="4">
         <f t="shared" si="10"/>
-        <v>10.317328969247406</v>
+        <v>3.6694300991050084</v>
       </c>
       <c r="M70" s="4">
         <f t="shared" si="11"/>
-        <v>2.3333333333333335</v>
+        <v>3.0333333333333332</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -3784,13 +3788,13 @@
         <v>3.5</v>
       </c>
       <c r="C71" s="2">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D71" s="2">
         <v>3</v>
       </c>
       <c r="E71" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F71" s="2">
         <v>0.5</v>
@@ -3807,19 +3811,19 @@
       </c>
       <c r="J71" s="4">
         <f t="shared" si="8"/>
-        <v>425</v>
+        <v>485</v>
       </c>
       <c r="K71" s="4">
         <f t="shared" si="9"/>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="L71" s="4">
         <f t="shared" si="10"/>
-        <v>5.6236629096102222</v>
+        <v>2.0578737190244736</v>
       </c>
       <c r="M71" s="4">
         <f t="shared" si="11"/>
-        <v>2.8333333333333335</v>
+        <v>3.2333333333333334</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -3837,7 +3841,7 @@
         <v>3</v>
       </c>
       <c r="E72" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F72" s="2">
         <v>0.5</v>
@@ -3854,19 +3858,19 @@
       </c>
       <c r="J72" s="4">
         <f t="shared" si="8"/>
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="K72" s="4">
         <f t="shared" si="9"/>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L72" s="4">
         <f t="shared" si="10"/>
-        <v>1.3386805441759793</v>
+        <v>0.5048355975007911</v>
       </c>
       <c r="M72" s="4">
         <f t="shared" si="11"/>
-        <v>3.3333333333333335</v>
+        <v>3.4333333333333331</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -3878,13 +3882,13 @@
         <v>3.5</v>
       </c>
       <c r="C73" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D73" s="2">
         <v>2.5</v>
       </c>
       <c r="E73" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F73" s="2">
         <v>0.5</v>
@@ -3901,19 +3905,19 @@
       </c>
       <c r="J73" s="4">
         <f t="shared" si="8"/>
-        <v>175</v>
+        <v>340</v>
       </c>
       <c r="K73" s="4">
         <f t="shared" si="9"/>
-        <v>350</v>
+        <v>185</v>
       </c>
       <c r="L73" s="4">
         <f t="shared" si="10"/>
-        <v>22.313636186505448</v>
+        <v>10.010069195872191</v>
       </c>
       <c r="M73" s="4">
         <f t="shared" si="11"/>
-        <v>1.1666666666666667</v>
+        <v>2.2666666666666666</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -3925,13 +3929,13 @@
         <v>3.5</v>
       </c>
       <c r="C74" s="2">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="D74" s="2">
         <v>2.5</v>
       </c>
       <c r="E74" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F74" s="2">
         <v>0.5</v>
@@ -3948,19 +3952,19 @@
       </c>
       <c r="J74" s="4">
         <f t="shared" si="8"/>
-        <v>237.5</v>
+        <v>365</v>
       </c>
       <c r="K74" s="4">
         <f t="shared" si="9"/>
-        <v>287.5</v>
+        <v>160</v>
       </c>
       <c r="L74" s="4">
         <f t="shared" si="10"/>
-        <v>17.586432767642691</v>
+        <v>8.5060675743046836</v>
       </c>
       <c r="M74" s="4">
         <f t="shared" si="11"/>
-        <v>1.5833333333333333</v>
+        <v>2.4333333333333331</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
@@ -3972,13 +3976,13 @@
         <v>3.5</v>
       </c>
       <c r="C75" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D75" s="2">
         <v>2.5</v>
       </c>
       <c r="E75" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F75" s="2">
         <v>0.5</v>
@@ -3995,19 +3999,19 @@
       </c>
       <c r="J75" s="4">
         <f t="shared" si="8"/>
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="K75" s="4">
         <f t="shared" si="9"/>
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="L75" s="4">
         <f t="shared" si="10"/>
-        <v>13.173262759099716</v>
+        <v>7.0506430431686686</v>
       </c>
       <c r="M75" s="4">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -4019,13 +4023,13 @@
         <v>3.5</v>
       </c>
       <c r="C76" s="2">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D76" s="2">
         <v>2.5</v>
       </c>
       <c r="E76" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F76" s="2">
         <v>0.5</v>
@@ -4042,19 +4046,19 @@
       </c>
       <c r="J76" s="4">
         <f t="shared" si="8"/>
-        <v>362.5</v>
+        <v>415</v>
       </c>
       <c r="K76" s="4">
         <f t="shared" si="9"/>
-        <v>162.5</v>
+        <v>110</v>
       </c>
       <c r="L76" s="4">
         <f t="shared" si="10"/>
-        <v>9.0908490204679655</v>
+        <v>5.6432679136518908</v>
       </c>
       <c r="M76" s="4">
         <f t="shared" si="11"/>
-        <v>2.4166666666666665</v>
+        <v>2.7666666666666666</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -4072,7 +4076,7 @@
         <v>2.5</v>
       </c>
       <c r="E77" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F77" s="2">
         <v>0.5</v>
@@ -4089,19 +4093,19 @@
       </c>
       <c r="J77" s="4">
         <f t="shared" si="8"/>
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="K77" s="4">
         <f t="shared" si="9"/>
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="L77" s="4">
         <f t="shared" si="10"/>
-        <v>5.3401795792825837</v>
+        <v>4.2832168397709927</v>
       </c>
       <c r="M77" s="4">
         <f t="shared" si="11"/>
-        <v>2.8333333333333335</v>
+        <v>2.9333333333333331</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -4112,14 +4116,14 @@
         <f t="shared" si="12"/>
         <v>3.5</v>
       </c>
-      <c r="C78" s="1">
-        <v>50</v>
+      <c r="C78" s="2">
+        <v>110</v>
       </c>
       <c r="D78" s="1">
         <v>4.5</v>
       </c>
       <c r="E78" s="1">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F78" s="1">
         <v>0.5</v>
@@ -4136,23 +4140,23 @@
       </c>
       <c r="J78" s="4">
         <f t="shared" si="8"/>
-        <v>287.5</v>
+        <v>565</v>
       </c>
       <c r="K78" s="4">
         <f t="shared" si="9"/>
-        <v>237.5</v>
+        <v>-40</v>
       </c>
       <c r="L78" s="4">
         <f t="shared" si="10"/>
-        <v>14.672649328994595</v>
+        <v>-2.1412812399843366</v>
       </c>
       <c r="M78" s="4">
         <f t="shared" si="11"/>
-        <v>1.9166666666666667</v>
+        <v>3.7666666666666666</v>
       </c>
       <c r="N78">
-        <f t="shared" ref="N67:N127" si="13">DEGREES(ATAN((A78*(M78+$O$1)-C78*D78-E78*F78)/(H78*(A78+C78+E78+G78))))</f>
-        <v>6.6030902284829169</v>
+        <f t="shared" ref="N78:N107" si="13">DEGREES(ATAN((A78*(M78+$O$1)-C78*D78-E78*F78)/(H78*(A78+C78+E78+G78))))</f>
+        <v>5.6055280987654781</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -4163,14 +4167,14 @@
         <f t="shared" si="12"/>
         <v>3.5</v>
       </c>
-      <c r="C79" s="1">
-        <v>75</v>
+      <c r="C79" s="2">
+        <v>120</v>
       </c>
       <c r="D79" s="1">
         <v>4.5</v>
       </c>
       <c r="E79" s="1">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F79" s="1">
         <v>0.5</v>
@@ -4187,23 +4191,23 @@
       </c>
       <c r="J79" s="4">
         <f t="shared" si="8"/>
-        <v>400</v>
+        <v>610</v>
       </c>
       <c r="K79" s="4">
         <f t="shared" si="9"/>
-        <v>125</v>
+        <v>-85</v>
       </c>
       <c r="L79" s="4">
         <f t="shared" si="10"/>
-        <v>7.4086528755092393</v>
+        <v>-4.4528517556753693</v>
       </c>
       <c r="M79" s="4">
         <f t="shared" si="11"/>
-        <v>2.6666666666666665</v>
+        <v>4.0666666666666664</v>
       </c>
       <c r="N79">
         <f t="shared" si="13"/>
-        <v>6.2334753483213321</v>
+        <v>5.4947750814618628</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -4214,14 +4218,14 @@
         <f t="shared" si="12"/>
         <v>3.5</v>
       </c>
-      <c r="C80" s="1">
-        <v>100</v>
+      <c r="C80" s="2">
+        <v>130</v>
       </c>
       <c r="D80" s="1">
         <v>4.5</v>
       </c>
       <c r="E80" s="1">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F80" s="1">
         <v>0.5</v>
@@ -4238,23 +4242,23 @@
       </c>
       <c r="J80" s="4">
         <f t="shared" si="8"/>
-        <v>512.5</v>
+        <v>655</v>
       </c>
       <c r="K80" s="4">
         <f t="shared" si="9"/>
-        <v>12.5</v>
+        <v>-130</v>
       </c>
       <c r="L80" s="4">
         <f t="shared" si="10"/>
-        <v>0.7051883488467624</v>
+        <v>-6.6607975814476932</v>
       </c>
       <c r="M80" s="4">
         <f t="shared" si="11"/>
-        <v>3.4166666666666665</v>
+        <v>4.3666666666666663</v>
       </c>
       <c r="N80">
         <f t="shared" si="13"/>
-        <v>5.9029073526545526</v>
+        <v>5.3883010848437198</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -4265,14 +4269,14 @@
         <f t="shared" si="12"/>
         <v>3.5</v>
       </c>
-      <c r="C81" s="1">
-        <v>125</v>
+      <c r="C81" s="2">
+        <v>140</v>
       </c>
       <c r="D81" s="1">
         <v>4.5</v>
       </c>
       <c r="E81" s="1">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F81" s="1">
         <v>0.5</v>
@@ -4289,23 +4293,23 @@
       </c>
       <c r="J81" s="4">
         <f t="shared" si="8"/>
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="K81" s="4">
         <f t="shared" si="9"/>
-        <v>-100</v>
+        <v>-175</v>
       </c>
       <c r="L81" s="4">
         <f t="shared" si="10"/>
-        <v>-5.3401795792825837</v>
+        <v>-8.7658123861491219</v>
       </c>
       <c r="M81" s="4">
         <f t="shared" si="11"/>
-        <v>4.166666666666667</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="N81">
         <f t="shared" si="13"/>
-        <v>5.6055280987654843</v>
+        <v>5.2858635188183314</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
@@ -4316,14 +4320,14 @@
         <f t="shared" si="12"/>
         <v>3.5</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="2">
         <v>150</v>
       </c>
       <c r="D82" s="1">
         <v>4.5</v>
       </c>
       <c r="E82" s="1">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F82" s="1">
         <v>0.5</v>
@@ -4340,23 +4344,23 @@
       </c>
       <c r="J82" s="4">
         <f t="shared" si="8"/>
-        <v>737.5</v>
+        <v>745</v>
       </c>
       <c r="K82" s="4">
         <f t="shared" si="9"/>
-        <v>-212.5</v>
+        <v>-220</v>
       </c>
       <c r="L82" s="4">
         <f t="shared" si="10"/>
-        <v>-10.705249091380969</v>
+        <v>-10.769637467964381</v>
       </c>
       <c r="M82" s="4">
         <f t="shared" si="11"/>
-        <v>4.916666666666667</v>
+        <v>4.9666666666666668</v>
       </c>
       <c r="N82">
         <f t="shared" si="13"/>
-        <v>5.3365921888690799</v>
+        <v>5.1872377407586523</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -4367,14 +4371,14 @@
         <f t="shared" si="12"/>
         <v>3.5</v>
       </c>
-      <c r="C83" s="1">
-        <v>50</v>
+      <c r="C83" s="2">
+        <v>110</v>
       </c>
       <c r="D83" s="1">
         <v>4</v>
       </c>
       <c r="E83" s="1">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F83" s="1">
         <v>0.5</v>
@@ -4391,19 +4395,19 @@
       </c>
       <c r="J83" s="4">
         <f t="shared" si="8"/>
-        <v>262.5</v>
+        <v>510</v>
       </c>
       <c r="K83" s="4">
         <f t="shared" si="9"/>
-        <v>262.5</v>
+        <v>15</v>
       </c>
       <c r="L83" s="4">
         <f t="shared" si="10"/>
-        <v>16.14025890902267</v>
+        <v>0.80330187551247711</v>
       </c>
       <c r="M83" s="4">
         <f t="shared" si="11"/>
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
@@ -4414,14 +4418,14 @@
         <f t="shared" si="12"/>
         <v>3.5</v>
       </c>
-      <c r="C84" s="1">
-        <v>75</v>
+      <c r="C84" s="2">
+        <v>120</v>
       </c>
       <c r="D84" s="1">
         <v>4</v>
       </c>
       <c r="E84" s="1">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F84" s="1">
         <v>0.5</v>
@@ -4438,19 +4442,19 @@
       </c>
       <c r="J84" s="4">
         <f t="shared" si="8"/>
-        <v>362.5</v>
+        <v>550</v>
       </c>
       <c r="K84" s="4">
         <f t="shared" si="9"/>
-        <v>162.5</v>
+        <v>-25</v>
       </c>
       <c r="L84" s="4">
         <f t="shared" si="10"/>
-        <v>9.5945869994080315</v>
+        <v>-1.3120760146265682</v>
       </c>
       <c r="M84" s="4">
         <f t="shared" si="11"/>
-        <v>2.4166666666666665</v>
+        <v>3.6666666666666665</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -4461,14 +4465,14 @@
         <f t="shared" si="12"/>
         <v>3.5</v>
       </c>
-      <c r="C85" s="1">
-        <v>100</v>
+      <c r="C85" s="2">
+        <v>130</v>
       </c>
       <c r="D85" s="1">
         <v>4</v>
       </c>
       <c r="E85" s="1">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F85" s="1">
         <v>0.5</v>
@@ -4485,19 +4489,19 @@
       </c>
       <c r="J85" s="4">
         <f t="shared" si="8"/>
-        <v>462.5</v>
+        <v>590</v>
       </c>
       <c r="K85" s="4">
         <f t="shared" si="9"/>
-        <v>62.5</v>
+        <v>-65</v>
       </c>
       <c r="L85" s="4">
         <f t="shared" si="10"/>
-        <v>3.5216781971444693</v>
+        <v>-3.3416892588907072</v>
       </c>
       <c r="M85" s="4">
         <f t="shared" si="11"/>
-        <v>3.0833333333333335</v>
+        <v>3.9333333333333331</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -4508,14 +4512,14 @@
         <f t="shared" si="12"/>
         <v>3.5</v>
       </c>
-      <c r="C86" s="1">
-        <v>125</v>
+      <c r="C86" s="2">
+        <v>140</v>
       </c>
       <c r="D86" s="1">
         <v>4</v>
       </c>
       <c r="E86" s="1">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F86" s="1">
         <v>0.5</v>
@@ -4532,19 +4536,19 @@
       </c>
       <c r="J86" s="4">
         <f t="shared" si="8"/>
-        <v>562.5</v>
+        <v>630</v>
       </c>
       <c r="K86" s="4">
         <f t="shared" si="9"/>
-        <v>-37.5</v>
+        <v>-105</v>
       </c>
       <c r="L86" s="4">
         <f t="shared" si="10"/>
-        <v>-2.0075643166031396</v>
+        <v>-5.2858635188183252</v>
       </c>
       <c r="M86" s="4">
         <f t="shared" si="11"/>
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -4555,14 +4559,14 @@
         <f t="shared" si="12"/>
         <v>3.5</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="2">
         <v>150</v>
       </c>
       <c r="D87" s="1">
         <v>4</v>
       </c>
       <c r="E87" s="1">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F87" s="1">
         <v>0.5</v>
@@ -4579,19 +4583,19 @@
       </c>
       <c r="J87" s="4">
         <f t="shared" si="8"/>
-        <v>662.5</v>
+        <v>670</v>
       </c>
       <c r="K87" s="4">
         <f t="shared" si="9"/>
-        <v>-137.5</v>
+        <v>-145</v>
       </c>
       <c r="L87" s="4">
         <f t="shared" si="10"/>
-        <v>-6.9740266135532041</v>
+        <v>-7.1456840616332782</v>
       </c>
       <c r="M87" s="4">
         <f t="shared" si="11"/>
-        <v>4.416666666666667</v>
+        <v>4.4666666666666668</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -4602,14 +4606,14 @@
         <f t="shared" si="12"/>
         <v>3.5</v>
       </c>
-      <c r="C88" s="1">
-        <v>50</v>
+      <c r="C88" s="2">
+        <v>110</v>
       </c>
       <c r="D88" s="1">
         <v>3.5</v>
       </c>
       <c r="E88" s="1">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F88" s="1">
         <v>0.5</v>
@@ -4626,19 +4630,19 @@
       </c>
       <c r="J88" s="4">
         <f t="shared" si="8"/>
-        <v>237.5</v>
+        <v>455</v>
       </c>
       <c r="K88" s="4">
         <f t="shared" si="9"/>
-        <v>287.5</v>
+        <v>70</v>
       </c>
       <c r="L88" s="4">
         <f t="shared" si="10"/>
-        <v>17.586432767642691</v>
+        <v>3.7436511662986196</v>
       </c>
       <c r="M88" s="4">
         <f t="shared" si="11"/>
-        <v>1.5833333333333333</v>
+        <v>3.0333333333333332</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -4649,14 +4653,14 @@
         <f t="shared" si="12"/>
         <v>3.5</v>
       </c>
-      <c r="C89" s="1">
-        <v>75</v>
+      <c r="C89" s="2">
+        <v>120</v>
       </c>
       <c r="D89" s="1">
         <v>3.5</v>
       </c>
       <c r="E89" s="1">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F89" s="1">
         <v>0.5</v>
@@ -4673,19 +4677,19 @@
       </c>
       <c r="J89" s="4">
         <f t="shared" si="8"/>
-        <v>325</v>
+        <v>490</v>
       </c>
       <c r="K89" s="4">
         <f t="shared" si="9"/>
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="L89" s="4">
         <f t="shared" si="10"/>
-        <v>11.752698367162525</v>
+        <v>1.836598291138883</v>
       </c>
       <c r="M89" s="4">
         <f t="shared" si="11"/>
-        <v>2.1666666666666665</v>
+        <v>3.2666666666666666</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
@@ -4696,14 +4700,14 @@
         <f t="shared" si="12"/>
         <v>3.5</v>
       </c>
-      <c r="C90" s="1">
-        <v>100</v>
+      <c r="C90" s="2">
+        <v>130</v>
       </c>
       <c r="D90" s="1">
         <v>3.5</v>
       </c>
       <c r="E90" s="1">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F90" s="1">
         <v>0.5</v>
@@ -4720,19 +4724,19 @@
       </c>
       <c r="J90" s="4">
         <f t="shared" si="8"/>
-        <v>412.5</v>
+        <v>525</v>
       </c>
       <c r="K90" s="4">
         <f t="shared" si="9"/>
-        <v>112.5</v>
+        <v>0</v>
       </c>
       <c r="L90" s="4">
         <f t="shared" si="10"/>
-        <v>6.3212428865785339</v>
+        <v>0</v>
       </c>
       <c r="M90" s="4">
         <f t="shared" si="11"/>
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -4743,14 +4747,14 @@
         <f t="shared" si="12"/>
         <v>3.5</v>
       </c>
-      <c r="C91" s="1">
-        <v>125</v>
+      <c r="C91" s="2">
+        <v>140</v>
       </c>
       <c r="D91" s="1">
         <v>3.5</v>
       </c>
       <c r="E91" s="1">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F91" s="1">
         <v>0.5</v>
@@ -4767,19 +4771,19 @@
       </c>
       <c r="J91" s="4">
         <f t="shared" si="8"/>
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="K91" s="4">
         <f t="shared" si="9"/>
-        <v>25</v>
+        <v>-35</v>
       </c>
       <c r="L91" s="4">
         <f t="shared" si="10"/>
-        <v>1.3386805441759793</v>
+        <v>-1.7664104650732442</v>
       </c>
       <c r="M91" s="4">
         <f t="shared" si="11"/>
-        <v>3.3333333333333335</v>
+        <v>3.7333333333333334</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
@@ -4790,14 +4794,14 @@
         <f t="shared" si="12"/>
         <v>3.5</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92" s="2">
         <v>150</v>
       </c>
       <c r="D92" s="1">
         <v>3.5</v>
       </c>
       <c r="E92" s="1">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F92" s="1">
         <v>0.5</v>
@@ -4814,19 +4818,19 @@
       </c>
       <c r="J92" s="4">
         <f t="shared" si="8"/>
-        <v>587.5</v>
+        <v>595</v>
       </c>
       <c r="K92" s="4">
         <f t="shared" si="9"/>
-        <v>-62.5</v>
+        <v>-70</v>
       </c>
       <c r="L92" s="4">
         <f t="shared" si="10"/>
-        <v>-3.1824838027204914</v>
+        <v>-3.4634132470262617</v>
       </c>
       <c r="M92" s="4">
         <f t="shared" si="11"/>
-        <v>3.9166666666666665</v>
+        <v>3.9666666666666668</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
@@ -4837,14 +4841,14 @@
         <f t="shared" si="12"/>
         <v>3.5</v>
       </c>
-      <c r="C93" s="1">
-        <v>50</v>
+      <c r="C93" s="2">
+        <v>110</v>
       </c>
       <c r="D93" s="1">
         <v>3</v>
       </c>
       <c r="E93" s="1">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F93" s="1">
         <v>0.5</v>
@@ -4861,19 +4865,19 @@
       </c>
       <c r="J93" s="4">
         <f t="shared" si="8"/>
-        <v>212.5</v>
+        <v>400</v>
       </c>
       <c r="K93" s="4">
         <f t="shared" si="9"/>
-        <v>312.5</v>
+        <v>125</v>
       </c>
       <c r="L93" s="4">
         <f t="shared" si="10"/>
-        <v>19.009836418049886</v>
+        <v>6.6644023785753674</v>
       </c>
       <c r="M93" s="4">
         <f t="shared" si="11"/>
-        <v>1.4166666666666667</v>
+        <v>2.6666666666666665</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -4884,14 +4888,14 @@
         <f t="shared" si="12"/>
         <v>3.5</v>
       </c>
-      <c r="C94" s="1">
-        <v>75</v>
+      <c r="C94" s="2">
+        <v>120</v>
       </c>
       <c r="D94" s="1">
         <v>3</v>
       </c>
       <c r="E94" s="1">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F94" s="1">
         <v>0.5</v>
@@ -4908,19 +4912,19 @@
       </c>
       <c r="J94" s="4">
         <f t="shared" si="8"/>
-        <v>287.5</v>
+        <v>430</v>
       </c>
       <c r="K94" s="4">
         <f t="shared" si="9"/>
-        <v>237.5</v>
+        <v>95</v>
       </c>
       <c r="L94" s="4">
         <f t="shared" si="10"/>
-        <v>13.877523194610601</v>
+        <v>4.9742256798454756</v>
       </c>
       <c r="M94" s="4">
         <f t="shared" si="11"/>
-        <v>1.9166666666666667</v>
+        <v>2.8666666666666667</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
@@ -4931,14 +4935,14 @@
         <f t="shared" si="12"/>
         <v>3.5</v>
       </c>
-      <c r="C95" s="1">
-        <v>100</v>
+      <c r="C95" s="2">
+        <v>130</v>
       </c>
       <c r="D95" s="1">
         <v>3</v>
       </c>
       <c r="E95" s="1">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F95" s="1">
         <v>0.5</v>
@@ -4955,19 +4959,19 @@
       </c>
       <c r="J95" s="4">
         <f t="shared" si="8"/>
-        <v>362.5</v>
+        <v>460</v>
       </c>
       <c r="K95" s="4">
         <f t="shared" si="9"/>
-        <v>162.5</v>
+        <v>65</v>
       </c>
       <c r="L95" s="4">
         <f t="shared" si="10"/>
-        <v>9.0908490204679655</v>
+        <v>3.3416892588907072</v>
       </c>
       <c r="M95" s="4">
         <f t="shared" si="11"/>
-        <v>2.4166666666666665</v>
+        <v>3.0666666666666669</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
@@ -4978,14 +4982,14 @@
         <f t="shared" si="12"/>
         <v>3.5</v>
       </c>
-      <c r="C96" s="1">
-        <v>125</v>
+      <c r="C96" s="2">
+        <v>140</v>
       </c>
       <c r="D96" s="1">
         <v>3</v>
       </c>
       <c r="E96" s="1">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F96" s="1">
         <v>0.5</v>
@@ -5002,19 +5006,19 @@
       </c>
       <c r="J96" s="4">
         <f t="shared" si="8"/>
-        <v>437.5</v>
+        <v>490</v>
       </c>
       <c r="K96" s="4">
         <f t="shared" si="9"/>
-        <v>87.5</v>
+        <v>35</v>
       </c>
       <c r="L96" s="4">
         <f t="shared" si="10"/>
-        <v>4.6758266668111625</v>
+        <v>1.7664104650732442</v>
       </c>
       <c r="M96" s="4">
         <f t="shared" si="11"/>
-        <v>2.9166666666666665</v>
+        <v>3.2666666666666666</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
@@ -5025,14 +5029,14 @@
         <f t="shared" si="12"/>
         <v>3.5</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="2">
         <v>150</v>
       </c>
       <c r="D97" s="1">
         <v>3</v>
       </c>
       <c r="E97" s="1">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F97" s="1">
         <v>0.5</v>
@@ -5049,19 +5053,19 @@
       </c>
       <c r="J97" s="4">
         <f t="shared" si="8"/>
-        <v>512.5</v>
+        <v>520</v>
       </c>
       <c r="K97" s="4">
         <f t="shared" si="9"/>
-        <v>12.5</v>
+        <v>5</v>
       </c>
       <c r="L97" s="4">
         <f t="shared" si="10"/>
-        <v>0.63712588620851773</v>
+        <v>0.24768687197873607</v>
       </c>
       <c r="M97" s="4">
         <f t="shared" si="11"/>
-        <v>3.4166666666666665</v>
+        <v>3.4666666666666668</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
@@ -5072,14 +5076,14 @@
         <f t="shared" si="12"/>
         <v>3.5</v>
       </c>
-      <c r="C98" s="1">
-        <v>50</v>
+      <c r="C98" s="2">
+        <v>110</v>
       </c>
       <c r="D98" s="1">
         <v>2.5</v>
       </c>
       <c r="E98" s="1">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F98" s="1">
         <v>0.5</v>
@@ -5096,19 +5100,19 @@
       </c>
       <c r="J98" s="4">
         <f t="shared" si="8"/>
-        <v>187.5</v>
+        <v>345</v>
       </c>
       <c r="K98" s="4">
         <f t="shared" si="9"/>
-        <v>337.5</v>
+        <v>180</v>
       </c>
       <c r="L98" s="4">
         <f t="shared" si="10"/>
-        <v>20.409289276740008</v>
+        <v>9.5507986310996316</v>
       </c>
       <c r="M98" s="4">
         <f t="shared" si="11"/>
-        <v>1.25</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
@@ -5119,14 +5123,14 @@
         <f t="shared" si="12"/>
         <v>3.5</v>
       </c>
-      <c r="C99" s="1">
-        <v>75</v>
+      <c r="C99" s="2">
+        <v>120</v>
       </c>
       <c r="D99" s="1">
         <v>2.5</v>
       </c>
       <c r="E99" s="1">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F99" s="1">
         <v>0.5</v>
@@ -5143,19 +5147,19 @@
       </c>
       <c r="J99" s="4">
         <f t="shared" si="8"/>
-        <v>250</v>
+        <v>370</v>
       </c>
       <c r="K99" s="4">
         <f t="shared" si="9"/>
-        <v>275</v>
+        <v>155</v>
       </c>
       <c r="L99" s="4">
         <f t="shared" si="10"/>
-        <v>15.964129348607399</v>
+        <v>8.0822552515163633</v>
       </c>
       <c r="M99" s="4">
         <f t="shared" si="11"/>
-        <v>1.6666666666666667</v>
+        <v>2.4666666666666668</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
@@ -5166,14 +5170,14 @@
         <f t="shared" si="12"/>
         <v>3.5</v>
       </c>
-      <c r="C100" s="1">
-        <v>100</v>
+      <c r="C100" s="2">
+        <v>130</v>
       </c>
       <c r="D100" s="1">
         <v>2.5</v>
       </c>
       <c r="E100" s="1">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F100" s="1">
         <v>0.5</v>
@@ -5190,19 +5194,19 @@
       </c>
       <c r="J100" s="4">
         <f t="shared" si="8"/>
-        <v>312.5</v>
+        <v>395</v>
       </c>
       <c r="K100" s="4">
         <f t="shared" si="9"/>
-        <v>212.5</v>
+        <v>130</v>
       </c>
       <c r="L100" s="4">
         <f t="shared" si="10"/>
-        <v>11.818295575463692</v>
+        <v>6.6607975814476932</v>
       </c>
       <c r="M100" s="4">
         <f t="shared" si="11"/>
-        <v>2.0833333333333335</v>
+        <v>2.6333333333333333</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
@@ -5213,14 +5217,14 @@
         <f t="shared" si="12"/>
         <v>3.5</v>
       </c>
-      <c r="C101" s="1">
-        <v>125</v>
+      <c r="C101" s="2">
+        <v>140</v>
       </c>
       <c r="D101" s="1">
         <v>2.5</v>
       </c>
       <c r="E101" s="1">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F101" s="1">
         <v>0.5</v>
@@ -5237,19 +5241,19 @@
       </c>
       <c r="J101" s="4">
         <f t="shared" si="8"/>
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="K101" s="4">
         <f t="shared" si="9"/>
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="L101" s="4">
         <f t="shared" si="10"/>
-        <v>7.9815127636165686</v>
+        <v>5.2858635188183252</v>
       </c>
       <c r="M101" s="4">
         <f t="shared" si="11"/>
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
@@ -5260,14 +5264,14 @@
         <f t="shared" si="12"/>
         <v>3.5</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102" s="2">
         <v>150</v>
       </c>
       <c r="D102" s="1">
         <v>2.5</v>
       </c>
       <c r="E102" s="1">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F102" s="1">
         <v>0.5</v>
@@ -5284,19 +5288,19 @@
       </c>
       <c r="J102" s="4">
         <f t="shared" si="8"/>
-        <v>437.5</v>
+        <v>445</v>
       </c>
       <c r="K102" s="4">
         <f t="shared" si="9"/>
-        <v>87.5</v>
+        <v>80</v>
       </c>
       <c r="L102" s="4">
         <f t="shared" si="10"/>
-        <v>4.4510890553125551</v>
+        <v>3.9567128136052219</v>
       </c>
       <c r="M102" s="4">
         <f t="shared" si="11"/>
-        <v>2.9166666666666665</v>
+        <v>2.9666666666666668</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
@@ -5308,7 +5312,7 @@
         <v>3.5</v>
       </c>
       <c r="C103" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D103" s="2">
         <v>4.5</v>
@@ -5331,23 +5335,23 @@
       </c>
       <c r="J103" s="4">
         <f t="shared" si="8"/>
-        <v>300</v>
+        <v>570</v>
       </c>
       <c r="K103" s="4">
         <f t="shared" si="9"/>
-        <v>225</v>
+        <v>-45</v>
       </c>
       <c r="L103" s="4">
         <f t="shared" si="10"/>
-        <v>13.173262759099716</v>
+        <v>-2.3608128102214905</v>
       </c>
       <c r="M103" s="4">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="N103">
         <f t="shared" si="13"/>
-        <v>6.2334753483213357</v>
+        <v>5.4947750814618628</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
@@ -5359,7 +5363,7 @@
         <v>3.5</v>
       </c>
       <c r="C104" s="2">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="D104" s="2">
         <v>4.5</v>
@@ -5382,23 +5386,23 @@
       </c>
       <c r="J104" s="4">
         <f t="shared" si="8"/>
-        <v>412.5</v>
+        <v>615</v>
       </c>
       <c r="K104" s="4">
         <f t="shared" si="9"/>
-        <v>112.5</v>
+        <v>-90</v>
       </c>
       <c r="L104" s="4">
         <f t="shared" si="10"/>
-        <v>6.3212428865785339</v>
+        <v>-4.6221548230345606</v>
       </c>
       <c r="M104" s="4">
         <f t="shared" si="11"/>
-        <v>2.75</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="N104">
         <f t="shared" si="13"/>
-        <v>5.9029073526545588</v>
+        <v>5.3883010848437198</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
@@ -5410,7 +5414,7 @@
         <v>3.5</v>
       </c>
       <c r="C105" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D105" s="2">
         <v>4.5</v>
@@ -5433,23 +5437,23 @@
       </c>
       <c r="J105" s="4">
         <f t="shared" si="8"/>
-        <v>525</v>
+        <v>660</v>
       </c>
       <c r="K105" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-135</v>
       </c>
       <c r="L105" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-6.7835817482748126</v>
       </c>
       <c r="M105" s="4">
         <f t="shared" si="11"/>
-        <v>3.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="N105">
         <f t="shared" si="13"/>
-        <v>5.6055280987654781</v>
+        <v>5.2858635188183314</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
@@ -5461,7 +5465,7 @@
         <v>3.5</v>
       </c>
       <c r="C106" s="2">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D106" s="2">
         <v>4.5</v>
@@ -5484,23 +5488,23 @@
       </c>
       <c r="J106" s="4">
         <f t="shared" si="8"/>
-        <v>637.5</v>
+        <v>705</v>
       </c>
       <c r="K106" s="4">
         <f t="shared" si="9"/>
-        <v>-112.5</v>
+        <v>-180</v>
       </c>
       <c r="L106" s="4">
         <f t="shared" si="10"/>
-        <v>-5.7153370429192396</v>
+        <v>-8.8458236294162376</v>
       </c>
       <c r="M106" s="4">
         <f t="shared" si="11"/>
-        <v>4.25</v>
+        <v>4.7</v>
       </c>
       <c r="N106">
         <f t="shared" si="13"/>
-        <v>5.3365921888690746</v>
+        <v>5.1872377407586523</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
@@ -5563,7 +5567,7 @@
         <v>3.5</v>
       </c>
       <c r="C108" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D108" s="2">
         <v>4</v>
@@ -5586,19 +5590,19 @@
       </c>
       <c r="J108" s="4">
         <f t="shared" si="8"/>
-        <v>275</v>
+        <v>515</v>
       </c>
       <c r="K108" s="4">
         <f t="shared" si="9"/>
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="L108" s="4">
         <f t="shared" si="10"/>
-        <v>14.577532320164877</v>
+        <v>0.52490748181853086</v>
       </c>
       <c r="M108" s="4">
         <f t="shared" si="11"/>
-        <v>1.8333333333333333</v>
+        <v>3.4333333333333331</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
@@ -5610,7 +5614,7 @@
         <v>3.5</v>
       </c>
       <c r="C109" s="2">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="D109" s="2">
         <v>4</v>
@@ -5633,19 +5637,19 @@
       </c>
       <c r="J109" s="4">
         <f t="shared" si="8"/>
-        <v>375</v>
+        <v>555</v>
       </c>
       <c r="K109" s="4">
         <f t="shared" si="9"/>
-        <v>150</v>
+        <v>-30</v>
       </c>
       <c r="L109" s="4">
         <f t="shared" si="10"/>
-        <v>8.4019405670474701</v>
+        <v>-1.5436956674359013</v>
       </c>
       <c r="M109" s="4">
         <f t="shared" si="11"/>
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
@@ -5657,7 +5661,7 @@
         <v>3.5</v>
       </c>
       <c r="C110" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D110" s="2">
         <v>4</v>
@@ -5680,19 +5684,19 @@
       </c>
       <c r="J110" s="4">
         <f t="shared" si="8"/>
-        <v>475</v>
+        <v>595</v>
       </c>
       <c r="K110" s="4">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>-70</v>
       </c>
       <c r="L110" s="4">
         <f t="shared" si="10"/>
-        <v>2.6759011255820697</v>
+        <v>-3.5294694618048146</v>
       </c>
       <c r="M110" s="4">
         <f t="shared" si="11"/>
-        <v>3.1666666666666665</v>
+        <v>3.9666666666666668</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
@@ -5704,7 +5708,7 @@
         <v>3.5</v>
       </c>
       <c r="C111" s="2">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D111" s="2">
         <v>4</v>
@@ -5727,19 +5731,19 @@
       </c>
       <c r="J111" s="4">
         <f t="shared" si="8"/>
-        <v>575</v>
+        <v>635</v>
       </c>
       <c r="K111" s="4">
         <f t="shared" si="9"/>
-        <v>-50</v>
+        <v>-110</v>
       </c>
       <c r="L111" s="4">
         <f t="shared" si="10"/>
-        <v>-2.5469296822424297</v>
+        <v>-5.4328044354604508</v>
       </c>
       <c r="M111" s="4">
         <f t="shared" si="11"/>
-        <v>3.8333333333333335</v>
+        <v>4.2333333333333334</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
@@ -5798,7 +5802,7 @@
         <v>3.5</v>
       </c>
       <c r="C113" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D113" s="2">
         <v>3.5</v>
@@ -5821,19 +5825,19 @@
       </c>
       <c r="J113" s="4">
         <f t="shared" si="8"/>
-        <v>250</v>
+        <v>460</v>
       </c>
       <c r="K113" s="4">
         <f t="shared" si="9"/>
-        <v>275</v>
+        <v>65</v>
       </c>
       <c r="L113" s="4">
         <f t="shared" si="10"/>
-        <v>15.964129348607399</v>
+        <v>3.40796937017396</v>
       </c>
       <c r="M113" s="4">
         <f t="shared" si="11"/>
-        <v>1.6666666666666667</v>
+        <v>3.0666666666666669</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5845,7 +5849,7 @@
         <v>3.5</v>
       </c>
       <c r="C114" s="2">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="D114" s="2">
         <v>3.5</v>
@@ -5868,19 +5872,19 @@
       </c>
       <c r="J114" s="4">
         <f t="shared" si="8"/>
-        <v>337.5</v>
+        <v>495</v>
       </c>
       <c r="K114" s="4">
         <f t="shared" si="9"/>
-        <v>187.5</v>
+        <v>30</v>
       </c>
       <c r="L114" s="4">
         <f t="shared" si="10"/>
-        <v>10.460563792481413</v>
+        <v>1.5436956674359013</v>
       </c>
       <c r="M114" s="4">
         <f t="shared" si="11"/>
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5892,7 +5896,7 @@
         <v>3.5</v>
       </c>
       <c r="C115" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D115" s="2">
         <v>3.5</v>
@@ -5915,19 +5919,19 @@
       </c>
       <c r="J115" s="4">
         <f t="shared" si="8"/>
-        <v>425</v>
+        <v>530</v>
       </c>
       <c r="K115" s="4">
         <f t="shared" si="9"/>
-        <v>100</v>
+        <v>-5</v>
       </c>
       <c r="L115" s="4">
         <f t="shared" si="10"/>
-        <v>5.3401795792825837</v>
+        <v>-0.25242269792693722</v>
       </c>
       <c r="M115" s="4">
         <f t="shared" si="11"/>
-        <v>2.8333333333333335</v>
+        <v>3.5333333333333332</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5939,7 +5943,7 @@
         <v>3.5</v>
       </c>
       <c r="C116" s="2">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D116" s="2">
         <v>3.5</v>
@@ -5962,19 +5966,19 @@
       </c>
       <c r="J116" s="4">
         <f t="shared" si="8"/>
-        <v>512.5</v>
+        <v>565</v>
       </c>
       <c r="K116" s="4">
         <f t="shared" si="9"/>
-        <v>12.5</v>
+        <v>-40</v>
       </c>
       <c r="L116" s="4">
         <f t="shared" si="10"/>
-        <v>0.63712588620851773</v>
+        <v>-1.9807178976336433</v>
       </c>
       <c r="M116" s="4">
         <f t="shared" si="11"/>
-        <v>3.4166666666666665</v>
+        <v>3.7666666666666666</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -6033,7 +6037,7 @@
         <v>3.5</v>
       </c>
       <c r="C118" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D118" s="2">
         <v>3</v>
@@ -6056,19 +6060,19 @@
       </c>
       <c r="J118" s="4">
         <f t="shared" si="8"/>
-        <v>225</v>
+        <v>405</v>
       </c>
       <c r="K118" s="4">
         <f t="shared" si="9"/>
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="L118" s="4">
         <f t="shared" si="10"/>
-        <v>17.331793238463025</v>
+        <v>6.2738702133790945</v>
       </c>
       <c r="M118" s="4">
         <f t="shared" si="11"/>
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -6080,7 +6084,7 @@
         <v>3.5</v>
       </c>
       <c r="C119" s="2">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="D119" s="2">
         <v>3</v>
@@ -6103,19 +6107,19 @@
       </c>
       <c r="J119" s="4">
         <f t="shared" si="8"/>
-        <v>300</v>
+        <v>435</v>
       </c>
       <c r="K119" s="4">
         <f t="shared" si="9"/>
-        <v>225</v>
+        <v>90</v>
       </c>
       <c r="L119" s="4">
         <f t="shared" si="10"/>
-        <v>12.492243719531114</v>
+        <v>4.6221548230345606</v>
       </c>
       <c r="M119" s="4">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -6127,7 +6131,7 @@
         <v>3.5</v>
       </c>
       <c r="C120" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D120" s="2">
         <v>3</v>
@@ -6150,19 +6154,19 @@
       </c>
       <c r="J120" s="4">
         <f t="shared" si="8"/>
-        <v>375</v>
+        <v>465</v>
       </c>
       <c r="K120" s="4">
         <f t="shared" si="9"/>
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="L120" s="4">
         <f t="shared" si="10"/>
-        <v>7.9815127636165686</v>
+        <v>3.0262746059303467</v>
       </c>
       <c r="M120" s="4">
         <f t="shared" si="11"/>
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -6174,7 +6178,7 @@
         <v>3.5</v>
       </c>
       <c r="C121" s="2">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D121" s="2">
         <v>3</v>
@@ -6197,19 +6201,19 @@
       </c>
       <c r="J121" s="4">
         <f t="shared" si="8"/>
-        <v>450</v>
+        <v>495</v>
       </c>
       <c r="K121" s="4">
         <f t="shared" si="9"/>
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="L121" s="4">
         <f t="shared" si="10"/>
-        <v>3.8172549447472539</v>
+        <v>1.4857973476985331</v>
       </c>
       <c r="M121" s="4">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -6268,7 +6272,7 @@
         <v>3.5</v>
       </c>
       <c r="C123" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D123" s="2">
         <v>2.5</v>
@@ -6291,19 +6295,19 @@
       </c>
       <c r="J123" s="4">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K123" s="4">
         <f t="shared" si="9"/>
-        <v>325</v>
+        <v>175</v>
       </c>
       <c r="L123" s="4">
         <f t="shared" si="10"/>
-        <v>18.679383716439226</v>
+        <v>9.1086195945598973</v>
       </c>
       <c r="M123" s="4">
         <f t="shared" si="11"/>
-        <v>1.3333333333333333</v>
+        <v>2.3333333333333335</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -6315,7 +6319,7 @@
         <v>3.5</v>
       </c>
       <c r="C124" s="2">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="D124" s="2">
         <v>2.5</v>
@@ -6338,19 +6342,19 @@
       </c>
       <c r="J124" s="4">
         <f t="shared" si="8"/>
-        <v>262.5</v>
+        <v>375</v>
       </c>
       <c r="K124" s="4">
         <f t="shared" si="9"/>
-        <v>262.5</v>
+        <v>150</v>
       </c>
       <c r="L124" s="4">
         <f t="shared" si="10"/>
-        <v>14.492507875747012</v>
+        <v>7.67412458356472</v>
       </c>
       <c r="M124" s="4">
         <f t="shared" si="11"/>
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -6362,7 +6366,7 @@
         <v>3.5</v>
       </c>
       <c r="C125" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D125" s="2">
         <v>2.5</v>
@@ -6385,19 +6389,19 @@
       </c>
       <c r="J125" s="4">
         <f t="shared" si="8"/>
-        <v>325</v>
+        <v>400</v>
       </c>
       <c r="K125" s="4">
         <f t="shared" si="9"/>
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="L125" s="4">
         <f t="shared" si="10"/>
-        <v>10.589159121635044</v>
+        <v>6.2852743876744128</v>
       </c>
       <c r="M125" s="4">
         <f t="shared" si="11"/>
-        <v>2.1666666666666665</v>
+        <v>2.6666666666666665</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -6409,7 +6413,7 @@
         <v>3.5</v>
       </c>
       <c r="C126" s="2">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="D126" s="2">
         <v>2.5</v>
@@ -6432,19 +6436,19 @@
       </c>
       <c r="J126" s="4">
         <f t="shared" si="8"/>
-        <v>387.5</v>
+        <v>425</v>
       </c>
       <c r="K126" s="4">
         <f t="shared" si="9"/>
-        <v>137.5</v>
+        <v>100</v>
       </c>
       <c r="L126" s="4">
         <f t="shared" si="10"/>
-        <v>6.9740266135532041</v>
+        <v>4.941479803705108</v>
       </c>
       <c r="M126" s="4">
         <f t="shared" si="11"/>
-        <v>2.5833333333333335</v>
+        <v>2.8333333333333335</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
